--- a/Dataset/categorias.xlsx
+++ b/Dataset/categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agusc\Documents\GIT\facturas\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0459C6-F01D-4993-808B-C13B9F2852B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB188F43-B848-4986-B740-3074E0B44E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02A39657-0D92-40AF-838F-75E909DD76D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1020">
   <si>
     <t>Categoria</t>
   </si>
@@ -2356,6 +2356,744 @@
   </si>
   <si>
     <t>TRUFAS</t>
+  </si>
+  <si>
+    <t>PAPELERIA</t>
+  </si>
+  <si>
+    <t>TEXTILES</t>
+  </si>
+  <si>
+    <t>FERRETERIA</t>
+  </si>
+  <si>
+    <t>DEPORTES Y FITNESS</t>
+  </si>
+  <si>
+    <t>CUADERNOLA</t>
+  </si>
+  <si>
+    <t>PAPEL</t>
+  </si>
+  <si>
+    <t>BOLIGRAFO</t>
+  </si>
+  <si>
+    <t>LAPICERA</t>
+  </si>
+  <si>
+    <t>CUADERNO</t>
+  </si>
+  <si>
+    <t>CINTA</t>
+  </si>
+  <si>
+    <t>MARCADORES</t>
+  </si>
+  <si>
+    <t>BANDAS ELASTICAS</t>
+  </si>
+  <si>
+    <t>MARCADOR PIZARRA</t>
+  </si>
+  <si>
+    <t>GOMA BORRAR</t>
+  </si>
+  <si>
+    <t>PEGAMENTO</t>
+  </si>
+  <si>
+    <t>CORRECTOR</t>
+  </si>
+  <si>
+    <t>PAPEL GLACE</t>
+  </si>
+  <si>
+    <t>CARPETA</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>LIBRETA</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>CABALLITO</t>
+  </si>
+  <si>
+    <t>RESALTADOR</t>
+  </si>
+  <si>
+    <t>LAPICES</t>
+  </si>
+  <si>
+    <t>LAPIZ</t>
+  </si>
+  <si>
+    <t>FOTOCOPIA</t>
+  </si>
+  <si>
+    <t>CRAYOLAS</t>
+  </si>
+  <si>
+    <t>GEOMETRIA</t>
+  </si>
+  <si>
+    <t>SACAPUNTAS</t>
+  </si>
+  <si>
+    <t>CLIP</t>
+  </si>
+  <si>
+    <t>MINAS</t>
+  </si>
+  <si>
+    <t>PAPEL CELOFAN</t>
+  </si>
+  <si>
+    <t>PASTELES</t>
+  </si>
+  <si>
+    <t>CHINCHES</t>
+  </si>
+  <si>
+    <t>REGLA</t>
+  </si>
+  <si>
+    <t>ESCUADRA</t>
+  </si>
+  <si>
+    <t>SEMICIRCULO</t>
+  </si>
+  <si>
+    <t>COMPAS</t>
+  </si>
+  <si>
+    <t>BRILLANTINA</t>
+  </si>
+  <si>
+    <t>CERAMICA</t>
+  </si>
+  <si>
+    <t>CARTUCHERA</t>
+  </si>
+  <si>
+    <t>GOM EVA</t>
+  </si>
+  <si>
+    <t>PIZARRA</t>
+  </si>
+  <si>
+    <t>MOCHILA</t>
+  </si>
+  <si>
+    <t>ARCHIVADOR</t>
+  </si>
+  <si>
+    <t>CARTULINA</t>
+  </si>
+  <si>
+    <t>PERFORADORA</t>
+  </si>
+  <si>
+    <t>PORTAMINA</t>
+  </si>
+  <si>
+    <t>SOBRE</t>
+  </si>
+  <si>
+    <t>FORRO</t>
+  </si>
+  <si>
+    <t>TEMPERAS</t>
+  </si>
+  <si>
+    <t>STICKER</t>
+  </si>
+  <si>
+    <t>REPASADOR</t>
+  </si>
+  <si>
+    <t>ALMOHADA</t>
+  </si>
+  <si>
+    <t>TOALLA</t>
+  </si>
+  <si>
+    <t>PERCHA</t>
+  </si>
+  <si>
+    <t>ELASTICO</t>
+  </si>
+  <si>
+    <t>SEDALINA</t>
+  </si>
+  <si>
+    <t>EDERDON</t>
+  </si>
+  <si>
+    <t>ALMOHADON</t>
+  </si>
+  <si>
+    <t>MEDIAS</t>
+  </si>
+  <si>
+    <t>SABANAS</t>
+  </si>
+  <si>
+    <t>ACOLCHADO</t>
+  </si>
+  <si>
+    <t>PROTECTOR COLCHON</t>
+  </si>
+  <si>
+    <t>BOMBACHA</t>
+  </si>
+  <si>
+    <t>PANTALON</t>
+  </si>
+  <si>
+    <t>ALFILER</t>
+  </si>
+  <si>
+    <t>CAMPERA</t>
+  </si>
+  <si>
+    <t>PANTUFLA</t>
+  </si>
+  <si>
+    <t>MANTEL</t>
+  </si>
+  <si>
+    <t>LANA</t>
+  </si>
+  <si>
+    <t>GORRO</t>
+  </si>
+  <si>
+    <t>FRAZADA</t>
+  </si>
+  <si>
+    <t>BUZO</t>
+  </si>
+  <si>
+    <t>FUNDA</t>
+  </si>
+  <si>
+    <t>BOXER</t>
+  </si>
+  <si>
+    <t>CORDON</t>
+  </si>
+  <si>
+    <t>CAMISETA</t>
+  </si>
+  <si>
+    <t>CAMISA</t>
+  </si>
+  <si>
+    <t>TAPADO</t>
+  </si>
+  <si>
+    <t>MOSQUITERO</t>
+  </si>
+  <si>
+    <t>CAPA</t>
+  </si>
+  <si>
+    <t>T-SHIRT</t>
+  </si>
+  <si>
+    <t>BABERO</t>
+  </si>
+  <si>
+    <t>CODERA</t>
+  </si>
+  <si>
+    <t>RODILLERA</t>
+  </si>
+  <si>
+    <t>POLERA</t>
+  </si>
+  <si>
+    <t>BROCHE</t>
+  </si>
+  <si>
+    <t>SOUTIEN</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>HILO</t>
+  </si>
+  <si>
+    <t>AGUJA</t>
+  </si>
+  <si>
+    <t>SACO</t>
+  </si>
+  <si>
+    <t>BOTA</t>
+  </si>
+  <si>
+    <t>PIJAMA</t>
+  </si>
+  <si>
+    <t>BIKINI</t>
+  </si>
+  <si>
+    <t>COLALESS</t>
+  </si>
+  <si>
+    <t>CORPIÑO</t>
+  </si>
+  <si>
+    <t>CONJUNTO</t>
+  </si>
+  <si>
+    <t>LEGGING</t>
+  </si>
+  <si>
+    <t>CALZA</t>
+  </si>
+  <si>
+    <t>BATA</t>
+  </si>
+  <si>
+    <t>CARDIGAN</t>
+  </si>
+  <si>
+    <t>SLIP</t>
+  </si>
+  <si>
+    <t>CHAMPION</t>
+  </si>
+  <si>
+    <t>MOCASIN</t>
+  </si>
+  <si>
+    <t>BLUSA</t>
+  </si>
+  <si>
+    <t>BILLETERA</t>
+  </si>
+  <si>
+    <t>MUSCULOSA</t>
+  </si>
+  <si>
+    <t>MANTA</t>
+  </si>
+  <si>
+    <t>CANGURO</t>
+  </si>
+  <si>
+    <t>ESCOLAR</t>
+  </si>
+  <si>
+    <t>BOLSO</t>
+  </si>
+  <si>
+    <t>COLORES</t>
+  </si>
+  <si>
+    <t>PILA</t>
+  </si>
+  <si>
+    <t>ADAPTADOR</t>
+  </si>
+  <si>
+    <t>LAMPARA</t>
+  </si>
+  <si>
+    <t>ESCALERA</t>
+  </si>
+  <si>
+    <t>LINTERNA</t>
+  </si>
+  <si>
+    <t>FIELTRO</t>
+  </si>
+  <si>
+    <t>ZOCALO</t>
+  </si>
+  <si>
+    <t>BURLETE</t>
+  </si>
+  <si>
+    <t>TOPE</t>
+  </si>
+  <si>
+    <t>CANILLA</t>
+  </si>
+  <si>
+    <t>ACOPLE</t>
+  </si>
+  <si>
+    <t>MANGUERA</t>
+  </si>
+  <si>
+    <t>ABRAZADERA</t>
+  </si>
+  <si>
+    <t>COLILLA</t>
+  </si>
+  <si>
+    <t>DESAGUE</t>
+  </si>
+  <si>
+    <t>VALVULA</t>
+  </si>
+  <si>
+    <t>ATORNILLADOR</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>TALADRO</t>
+  </si>
+  <si>
+    <t>HIDROLAVADORA</t>
+  </si>
+  <si>
+    <t>CABLE</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>AMOLADORA</t>
+  </si>
+  <si>
+    <t>ELECTROSIERRA</t>
+  </si>
+  <si>
+    <t>BATERIA</t>
+  </si>
+  <si>
+    <t>CEMENTAR</t>
+  </si>
+  <si>
+    <t>MOTOSIERRA</t>
+  </si>
+  <si>
+    <t>CORTACERCO</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>CAJON</t>
+  </si>
+  <si>
+    <t>HERRAMIENTA</t>
+  </si>
+  <si>
+    <t>VALIJA</t>
+  </si>
+  <si>
+    <t>ORGANIZADOR</t>
+  </si>
+  <si>
+    <t>CANASTO</t>
+  </si>
+  <si>
+    <t>MECHAS</t>
+  </si>
+  <si>
+    <t>TORNILLO</t>
+  </si>
+  <si>
+    <t>CLAVO</t>
+  </si>
+  <si>
+    <t>CANDADO</t>
+  </si>
+  <si>
+    <t>TACO FISCHER</t>
+  </si>
+  <si>
+    <t>GRAMPA</t>
+  </si>
+  <si>
+    <t>PITON</t>
+  </si>
+  <si>
+    <t>TIRAFONDO</t>
+  </si>
+  <si>
+    <t>REMACHE</t>
+  </si>
+  <si>
+    <t>ALARGUE</t>
+  </si>
+  <si>
+    <t>FICHA</t>
+  </si>
+  <si>
+    <t>TIMBRE</t>
+  </si>
+  <si>
+    <t>ZAPATILLA</t>
+  </si>
+  <si>
+    <t>INTERRUPTOR</t>
+  </si>
+  <si>
+    <t>PORTALAMPARA</t>
+  </si>
+  <si>
+    <t>INFLADOR</t>
+  </si>
+  <si>
+    <t>FOTOCELULA</t>
+  </si>
+  <si>
+    <t>BORNERA</t>
+  </si>
+  <si>
+    <t>TOMA</t>
+  </si>
+  <si>
+    <t>CONECTOR</t>
+  </si>
+  <si>
+    <t>TESTER</t>
+  </si>
+  <si>
+    <t>SILICONA</t>
+  </si>
+  <si>
+    <t>ADHESIVO</t>
+  </si>
+  <si>
+    <t>CEMENTO</t>
+  </si>
+  <si>
+    <t>EPOXI</t>
+  </si>
+  <si>
+    <t>MASILLA</t>
+  </si>
+  <si>
+    <t>SELLADOR</t>
+  </si>
+  <si>
+    <t>PEGA</t>
+  </si>
+  <si>
+    <t>POXILINA</t>
+  </si>
+  <si>
+    <t>LA GOTITA</t>
+  </si>
+  <si>
+    <t>ECCOLE</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>AGUARRAS</t>
+  </si>
+  <si>
+    <t>PINCEL</t>
+  </si>
+  <si>
+    <t>DESOXIDANTE</t>
+  </si>
+  <si>
+    <t>RODILLO</t>
+  </si>
+  <si>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>PINCELETA</t>
+  </si>
+  <si>
+    <t>BARNIZ</t>
+  </si>
+  <si>
+    <t>CIELORRASO</t>
+  </si>
+  <si>
+    <t>ENDUIDO</t>
+  </si>
+  <si>
+    <t>PROTECTOR MADERA</t>
+  </si>
+  <si>
+    <t>REMOVEDOR</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>FOCO</t>
+  </si>
+  <si>
+    <t>FAROL</t>
+  </si>
+  <si>
+    <t>PISTOLA</t>
+  </si>
+  <si>
+    <t>TRINCHETA</t>
+  </si>
+  <si>
+    <t>HACHA</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
+    <t>MACETA</t>
+  </si>
+  <si>
+    <t>DISCO CORTE</t>
+  </si>
+  <si>
+    <t>MARTILLO</t>
+  </si>
+  <si>
+    <t>SERRUCHO</t>
+  </si>
+  <si>
+    <t>ROTOMARTILLO</t>
+  </si>
+  <si>
+    <t>MORSA</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>BALONADORA</t>
+  </si>
+  <si>
+    <t>EMGRAMPADORA</t>
+  </si>
+  <si>
+    <t>REMACHADORA</t>
+  </si>
+  <si>
+    <t>PRENSA</t>
+  </si>
+  <si>
+    <t>CALIBRE</t>
+  </si>
+  <si>
+    <t>NAVAJA</t>
+  </si>
+  <si>
+    <t>PULIDORA</t>
+  </si>
+  <si>
+    <t>GUANTES</t>
+  </si>
+  <si>
+    <t>SUNCHO</t>
+  </si>
+  <si>
+    <t>DISOLVENTE</t>
+  </si>
+  <si>
+    <t>CUERDA</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>BOXEO</t>
+  </si>
+  <si>
+    <t>PELOTA</t>
+  </si>
+  <si>
+    <t>VOLLEY</t>
+  </si>
+  <si>
+    <t>BASKET</t>
+  </si>
+  <si>
+    <t>BASKETBALL</t>
+  </si>
+  <si>
+    <t>TENIS</t>
+  </si>
+  <si>
+    <t>PING PONG</t>
+  </si>
+  <si>
+    <t>FUTBOLITO</t>
+  </si>
+  <si>
+    <t>COLCHONETA</t>
+  </si>
+  <si>
+    <t>YOGA MAT</t>
+  </si>
+  <si>
+    <t>YOGA</t>
+  </si>
+  <si>
+    <t>MANCUERNA</t>
+  </si>
+  <si>
+    <t>EJERCICIO</t>
+  </si>
+  <si>
+    <t>SURF</t>
+  </si>
+  <si>
+    <t>MOREY</t>
+  </si>
+  <si>
+    <t>FUTBOL</t>
+  </si>
+  <si>
+    <t>GOLERO</t>
+  </si>
+  <si>
+    <t>CANILLERAS</t>
+  </si>
+  <si>
+    <t>BICICLETA</t>
+  </si>
+  <si>
+    <t>ERGOMETRICA</t>
+  </si>
+  <si>
+    <t>CAMINADOR</t>
+  </si>
+  <si>
+    <t>GIMNASIO</t>
+  </si>
+  <si>
+    <t>BICI</t>
+  </si>
+  <si>
+    <t>SPINNING</t>
+  </si>
+  <si>
+    <t>ELIPTICA</t>
+  </si>
+  <si>
+    <t>REMO</t>
+  </si>
+  <si>
+    <t>RAQUETA</t>
   </si>
 </sst>
 </file>
@@ -2717,16 +3455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABF3621-1C52-45DF-82E6-0AD397EB0999}">
-  <dimension ref="A1:C818"/>
+  <dimension ref="A1:C1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A1033" workbookViewId="0">
+      <selection activeCell="A1014" sqref="A1014:XFD1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,12 +4332,28 @@
         <v>349</v>
       </c>
     </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3607,7 +4361,7 @@
         <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +4369,7 @@
         <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3623,7 +4377,7 @@
         <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +4385,7 @@
         <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3639,7 +4393,7 @@
         <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3647,7 +4401,7 @@
         <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3655,7 +4409,7 @@
         <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3663,7 +4417,7 @@
         <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,7 +4425,7 @@
         <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3679,7 +4433,7 @@
         <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +4441,7 @@
         <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3695,7 +4449,7 @@
         <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +4457,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,7 +4465,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +4473,7 @@
         <v>165</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3727,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3735,7 +4489,7 @@
         <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3743,23 +4497,39 @@
         <v>165</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3767,7 +4537,7 @@
         <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3775,7 +4545,7 @@
         <v>166</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3783,7 +4553,7 @@
         <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>689</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,7 +4561,7 @@
         <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3799,7 +4569,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3807,7 +4577,7 @@
         <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>691</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3815,7 +4585,7 @@
         <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>689</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3823,7 +4593,7 @@
         <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>688</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3831,7 +4601,7 @@
         <v>166</v>
       </c>
       <c r="B142" t="s">
-        <v>690</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3839,7 +4609,7 @@
         <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>691</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3847,7 +4617,7 @@
         <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3855,7 +4625,7 @@
         <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3863,7 +4633,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3871,7 +4641,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3879,7 +4649,7 @@
         <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>692</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3887,7 +4657,7 @@
         <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>693</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3895,7 +4665,7 @@
         <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3903,7 +4673,7 @@
         <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>695</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3911,7 +4681,7 @@
         <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3919,7 +4689,7 @@
         <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3927,7 +4697,7 @@
         <v>166</v>
       </c>
       <c r="B154" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3935,7 +4705,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3943,7 +4713,7 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3951,7 +4721,7 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3959,7 +4729,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3967,7 +4737,7 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3975,7 +4745,7 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3983,7 +4753,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3991,7 +4761,7 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3999,7 +4769,7 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4007,7 +4777,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4015,7 +4785,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4023,7 +4793,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4031,7 +4801,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4039,7 +4809,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4047,7 +4817,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4055,7 +4825,7 @@
         <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4063,36 +4833,55 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>672</v>
       </c>
       <c r="B172" t="s">
-        <v>713</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>672</v>
       </c>
       <c r="B173" t="s">
-        <v>714</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>672</v>
       </c>
       <c r="B174" t="s">
-        <v>715</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>672</v>
+      </c>
       <c r="B175" t="s">
-        <v>716</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>672</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>672</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -4100,7 +4889,7 @@
         <v>672</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -4108,7 +4897,7 @@
         <v>672</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -4116,7 +4905,7 @@
         <v>672</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -4124,7 +4913,7 @@
         <v>672</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4132,7 +4921,7 @@
         <v>672</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4929,7 @@
         <v>672</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -4148,7 +4937,7 @@
         <v>672</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -4156,7 +4945,7 @@
         <v>672</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -4164,7 +4953,7 @@
         <v>672</v>
       </c>
       <c r="B186" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -4172,7 +4961,7 @@
         <v>672</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -4180,7 +4969,7 @@
         <v>672</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4188,7 +4977,7 @@
         <v>672</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4985,7 @@
         <v>672</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -4204,7 +4993,7 @@
         <v>672</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -4212,7 +5001,7 @@
         <v>672</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -4220,7 +5009,7 @@
         <v>672</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -4228,7 +5017,7 @@
         <v>672</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -4236,7 +5025,7 @@
         <v>672</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4244,7 +5033,7 @@
         <v>672</v>
       </c>
       <c r="B196" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4252,7 +5041,7 @@
         <v>672</v>
       </c>
       <c r="B197" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -4260,7 +5049,7 @@
         <v>672</v>
       </c>
       <c r="B198" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4268,7 +5057,7 @@
         <v>672</v>
       </c>
       <c r="B199" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4276,7 +5065,7 @@
         <v>672</v>
       </c>
       <c r="B200" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4284,7 +5073,7 @@
         <v>672</v>
       </c>
       <c r="B201" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4292,7 +5081,7 @@
         <v>672</v>
       </c>
       <c r="B202" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4300,7 +5089,7 @@
         <v>672</v>
       </c>
       <c r="B203" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4308,7 +5097,7 @@
         <v>672</v>
       </c>
       <c r="B204" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4316,7 +5105,7 @@
         <v>672</v>
       </c>
       <c r="B205" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4324,7 +5113,7 @@
         <v>672</v>
       </c>
       <c r="B206" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4332,7 +5121,7 @@
         <v>672</v>
       </c>
       <c r="B207" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4340,7 +5129,7 @@
         <v>672</v>
       </c>
       <c r="B208" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4348,7 +5137,7 @@
         <v>672</v>
       </c>
       <c r="B209" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4356,7 +5145,7 @@
         <v>672</v>
       </c>
       <c r="B210" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4364,7 +5153,7 @@
         <v>672</v>
       </c>
       <c r="B211" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4372,7 +5161,7 @@
         <v>672</v>
       </c>
       <c r="B212" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4380,7 +5169,7 @@
         <v>672</v>
       </c>
       <c r="B213" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4388,7 +5177,7 @@
         <v>672</v>
       </c>
       <c r="B214" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4396,7 +5185,7 @@
         <v>672</v>
       </c>
       <c r="B215" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4404,7 +5193,7 @@
         <v>672</v>
       </c>
       <c r="B216" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4412,7 +5201,7 @@
         <v>672</v>
       </c>
       <c r="B217" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4420,7 +5209,7 @@
         <v>672</v>
       </c>
       <c r="B218" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4428,7 +5217,7 @@
         <v>672</v>
       </c>
       <c r="B219" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +5225,7 @@
         <v>672</v>
       </c>
       <c r="B220" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4444,7 +5233,7 @@
         <v>672</v>
       </c>
       <c r="B221" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4452,7 +5241,7 @@
         <v>672</v>
       </c>
       <c r="B222" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4460,7 +5249,7 @@
         <v>672</v>
       </c>
       <c r="B223" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4468,7 +5257,7 @@
         <v>672</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4476,7 +5265,7 @@
         <v>672</v>
       </c>
       <c r="B225" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4484,7 +5273,7 @@
         <v>672</v>
       </c>
       <c r="B226" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4492,7 +5281,7 @@
         <v>672</v>
       </c>
       <c r="B227" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4500,7 +5289,7 @@
         <v>672</v>
       </c>
       <c r="B228" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4508,7 +5297,7 @@
         <v>672</v>
       </c>
       <c r="B229" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4516,7 +5305,7 @@
         <v>672</v>
       </c>
       <c r="B230" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4524,7 +5313,7 @@
         <v>672</v>
       </c>
       <c r="B231" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4532,7 +5321,7 @@
         <v>672</v>
       </c>
       <c r="B232" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4540,7 +5329,7 @@
         <v>672</v>
       </c>
       <c r="B233" t="s">
-        <v>338</v>
+        <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4548,7 +5337,7 @@
         <v>672</v>
       </c>
       <c r="B234" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4556,7 +5345,7 @@
         <v>672</v>
       </c>
       <c r="B235" t="s">
-        <v>340</v>
+        <v>675</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4564,7 +5353,7 @@
         <v>672</v>
       </c>
       <c r="B236" t="s">
-        <v>341</v>
+        <v>676</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4572,7 +5361,7 @@
         <v>672</v>
       </c>
       <c r="B237" t="s">
-        <v>342</v>
+        <v>677</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4580,7 +5369,7 @@
         <v>672</v>
       </c>
       <c r="B238" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4588,7 +5377,7 @@
         <v>672</v>
       </c>
       <c r="B239" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4596,7 +5385,7 @@
         <v>672</v>
       </c>
       <c r="B240" t="s">
-        <v>315</v>
+        <v>680</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4604,7 +5393,7 @@
         <v>672</v>
       </c>
       <c r="B241" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4612,7 +5401,7 @@
         <v>672</v>
       </c>
       <c r="B242" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4620,7 +5409,7 @@
         <v>672</v>
       </c>
       <c r="B243" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4628,7 +5417,7 @@
         <v>672</v>
       </c>
       <c r="B244" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4636,7 +5425,7 @@
         <v>672</v>
       </c>
       <c r="B245" t="s">
-        <v>679</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4644,7 +5433,7 @@
         <v>672</v>
       </c>
       <c r="B246" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4652,7 +5441,7 @@
         <v>672</v>
       </c>
       <c r="B247" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4660,79 +5449,111 @@
         <v>672</v>
       </c>
       <c r="B248" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>672</v>
+        <v>402</v>
       </c>
       <c r="B249" t="s">
-        <v>683</v>
+        <v>403</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>672</v>
+        <v>402</v>
       </c>
       <c r="B250" t="s">
-        <v>684</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>672</v>
+        <v>402</v>
       </c>
       <c r="B251" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>672</v>
+        <v>167</v>
       </c>
       <c r="B252" t="s">
-        <v>685</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>672</v>
+        <v>167</v>
       </c>
       <c r="B253" t="s">
-        <v>686</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>672</v>
+        <v>167</v>
       </c>
       <c r="B254" t="s">
-        <v>687</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>167</v>
+      </c>
+      <c r="B255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>167</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="B257" t="s">
-        <v>403</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="B258" t="s">
-        <v>404</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="B259" t="s">
-        <v>405</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>167</v>
+      </c>
+      <c r="B260" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>167</v>
+      </c>
+      <c r="B261" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4740,7 +5561,7 @@
         <v>167</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4748,7 +5569,7 @@
         <v>167</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4756,7 +5577,7 @@
         <v>167</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4764,7 +5585,7 @@
         <v>167</v>
       </c>
       <c r="B265" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4772,7 +5593,7 @@
         <v>167</v>
       </c>
       <c r="B266" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4780,7 +5601,7 @@
         <v>167</v>
       </c>
       <c r="B267" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4788,7 +5609,7 @@
         <v>167</v>
       </c>
       <c r="B268" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4796,7 +5617,7 @@
         <v>167</v>
       </c>
       <c r="B269" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4804,7 +5625,7 @@
         <v>167</v>
       </c>
       <c r="B270" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4812,7 +5633,7 @@
         <v>167</v>
       </c>
       <c r="B271" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4820,7 +5641,7 @@
         <v>167</v>
       </c>
       <c r="B272" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4828,7 +5649,7 @@
         <v>167</v>
       </c>
       <c r="B273" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4836,7 +5657,7 @@
         <v>167</v>
       </c>
       <c r="B274" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4844,7 +5665,7 @@
         <v>167</v>
       </c>
       <c r="B275" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4852,7 +5673,7 @@
         <v>167</v>
       </c>
       <c r="B276" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4860,7 +5681,7 @@
         <v>167</v>
       </c>
       <c r="B277" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4868,7 +5689,7 @@
         <v>167</v>
       </c>
       <c r="B278" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4876,7 +5697,7 @@
         <v>167</v>
       </c>
       <c r="B279" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4884,7 +5705,7 @@
         <v>167</v>
       </c>
       <c r="B280" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4892,7 +5713,7 @@
         <v>167</v>
       </c>
       <c r="B281" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4900,7 +5721,7 @@
         <v>167</v>
       </c>
       <c r="B282" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4908,7 +5729,7 @@
         <v>167</v>
       </c>
       <c r="B283" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4916,7 +5737,7 @@
         <v>167</v>
       </c>
       <c r="B284" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4924,7 +5745,7 @@
         <v>167</v>
       </c>
       <c r="B285" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4932,7 +5753,7 @@
         <v>167</v>
       </c>
       <c r="B286" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4940,7 +5761,7 @@
         <v>167</v>
       </c>
       <c r="B287" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4948,7 +5769,7 @@
         <v>167</v>
       </c>
       <c r="B288" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4956,7 +5777,7 @@
         <v>167</v>
       </c>
       <c r="B289" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4964,7 +5785,7 @@
         <v>167</v>
       </c>
       <c r="B290" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4972,7 +5793,7 @@
         <v>167</v>
       </c>
       <c r="B291" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4980,7 +5801,7 @@
         <v>167</v>
       </c>
       <c r="B292" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4988,7 +5809,7 @@
         <v>167</v>
       </c>
       <c r="B293" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4996,7 +5817,7 @@
         <v>167</v>
       </c>
       <c r="B294" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5004,7 +5825,7 @@
         <v>167</v>
       </c>
       <c r="B295" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5012,7 +5833,7 @@
         <v>167</v>
       </c>
       <c r="B296" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5020,7 +5841,7 @@
         <v>167</v>
       </c>
       <c r="B297" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5028,7 +5849,7 @@
         <v>167</v>
       </c>
       <c r="B298" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5036,7 +5857,7 @@
         <v>167</v>
       </c>
       <c r="B299" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5044,7 +5865,7 @@
         <v>167</v>
       </c>
       <c r="B300" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -5052,7 +5873,7 @@
         <v>167</v>
       </c>
       <c r="B301" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -5060,7 +5881,7 @@
         <v>167</v>
       </c>
       <c r="B302" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5068,7 +5889,7 @@
         <v>167</v>
       </c>
       <c r="B303" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5076,7 +5897,7 @@
         <v>167</v>
       </c>
       <c r="B304" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5084,7 +5905,7 @@
         <v>167</v>
       </c>
       <c r="B305" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5092,7 +5913,7 @@
         <v>167</v>
       </c>
       <c r="B306" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -5100,7 +5921,7 @@
         <v>167</v>
       </c>
       <c r="B307" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -5108,7 +5929,7 @@
         <v>167</v>
       </c>
       <c r="B308" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -5116,7 +5937,7 @@
         <v>167</v>
       </c>
       <c r="B309" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5124,7 +5945,7 @@
         <v>167</v>
       </c>
       <c r="B310" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5132,7 +5953,7 @@
         <v>167</v>
       </c>
       <c r="B311" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5140,7 +5961,7 @@
         <v>167</v>
       </c>
       <c r="B312" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5148,7 +5969,7 @@
         <v>167</v>
       </c>
       <c r="B313" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +5977,7 @@
         <v>167</v>
       </c>
       <c r="B314" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5164,7 +5985,7 @@
         <v>167</v>
       </c>
       <c r="B315" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5172,7 +5993,7 @@
         <v>167</v>
       </c>
       <c r="B316" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -5180,7 +6001,7 @@
         <v>167</v>
       </c>
       <c r="B317" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -5188,7 +6009,7 @@
         <v>167</v>
       </c>
       <c r="B318" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -5196,7 +6017,7 @@
         <v>167</v>
       </c>
       <c r="B319" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -5204,7 +6025,7 @@
         <v>167</v>
       </c>
       <c r="B320" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -5212,7 +6033,7 @@
         <v>167</v>
       </c>
       <c r="B321" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -5220,7 +6041,7 @@
         <v>167</v>
       </c>
       <c r="B322" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -5228,87 +6049,103 @@
         <v>167</v>
       </c>
       <c r="B323" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B324" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B325" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B326" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B327" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B328" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B329" t="s">
-        <v>219</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B330" t="s">
-        <v>220</v>
+        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B331" t="s">
-        <v>221</v>
+        <v>666</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B332" t="s">
-        <v>222</v>
+        <v>667</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B333" t="s">
-        <v>223</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>168</v>
+      </c>
+      <c r="B334" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>168</v>
+      </c>
+      <c r="B335" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5316,103 +6153,119 @@
         <v>168</v>
       </c>
       <c r="B336" t="s">
-        <v>53</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B337" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B338" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B339" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B340" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B341" t="s">
-        <v>664</v>
+        <v>39</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B342" t="s">
-        <v>665</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
-        <v>666</v>
+        <v>51</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B344" t="s">
-        <v>667</v>
+        <v>52</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B345" t="s">
-        <v>668</v>
+        <v>63</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B346" t="s">
-        <v>669</v>
+        <v>65</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B347" t="s">
-        <v>670</v>
+        <v>68</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="B348" t="s">
-        <v>671</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>401</v>
+      </c>
+      <c r="B349" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>401</v>
+      </c>
+      <c r="B350" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -5420,7 +6273,7 @@
         <v>401</v>
       </c>
       <c r="B351" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -5428,7 +6281,7 @@
         <v>401</v>
       </c>
       <c r="B352" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -5436,7 +6289,7 @@
         <v>401</v>
       </c>
       <c r="B353" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -5444,7 +6297,7 @@
         <v>401</v>
       </c>
       <c r="B354" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -5452,7 +6305,7 @@
         <v>401</v>
       </c>
       <c r="B355" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -5460,7 +6313,7 @@
         <v>401</v>
       </c>
       <c r="B356" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -5468,7 +6321,7 @@
         <v>401</v>
       </c>
       <c r="B357" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -5476,7 +6329,7 @@
         <v>401</v>
       </c>
       <c r="B358" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -5484,7 +6337,7 @@
         <v>401</v>
       </c>
       <c r="B359" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -5492,7 +6345,7 @@
         <v>401</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -5500,7 +6353,7 @@
         <v>401</v>
       </c>
       <c r="B361" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -5508,7 +6361,7 @@
         <v>401</v>
       </c>
       <c r="B362" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,7 +6369,7 @@
         <v>401</v>
       </c>
       <c r="B363" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -5524,7 +6377,7 @@
         <v>401</v>
       </c>
       <c r="B364" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -5532,7 +6385,7 @@
         <v>401</v>
       </c>
       <c r="B365" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -5540,7 +6393,7 @@
         <v>401</v>
       </c>
       <c r="B366" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -5548,7 +6401,7 @@
         <v>401</v>
       </c>
       <c r="B367" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -5556,7 +6409,7 @@
         <v>401</v>
       </c>
       <c r="B368" t="s">
-        <v>64</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -5564,7 +6417,7 @@
         <v>401</v>
       </c>
       <c r="B369" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -5572,7 +6425,7 @@
         <v>401</v>
       </c>
       <c r="B370" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -5580,7 +6433,7 @@
         <v>401</v>
       </c>
       <c r="B371" t="s">
-        <v>87</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +6441,7 @@
         <v>401</v>
       </c>
       <c r="B372" t="s">
-        <v>101</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -5596,7 +6449,7 @@
         <v>401</v>
       </c>
       <c r="B373" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -5604,7 +6457,7 @@
         <v>401</v>
       </c>
       <c r="B374" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -5612,7 +6465,7 @@
         <v>401</v>
       </c>
       <c r="B375" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -5620,7 +6473,7 @@
         <v>401</v>
       </c>
       <c r="B376" t="s">
-        <v>106</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -5628,7 +6481,7 @@
         <v>401</v>
       </c>
       <c r="B377" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -5636,7 +6489,7 @@
         <v>401</v>
       </c>
       <c r="B378" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -5644,7 +6497,7 @@
         <v>401</v>
       </c>
       <c r="B379" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -5652,7 +6505,7 @@
         <v>401</v>
       </c>
       <c r="B380" t="s">
-        <v>77</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -5660,7 +6513,7 @@
         <v>401</v>
       </c>
       <c r="B381" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -5668,7 +6521,7 @@
         <v>401</v>
       </c>
       <c r="B382" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -5676,7 +6529,7 @@
         <v>401</v>
       </c>
       <c r="B383" t="s">
-        <v>151</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -5684,7 +6537,7 @@
         <v>401</v>
       </c>
       <c r="B384" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -5692,7 +6545,7 @@
         <v>401</v>
       </c>
       <c r="B385" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -5700,7 +6553,7 @@
         <v>401</v>
       </c>
       <c r="B386" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -5708,7 +6561,7 @@
         <v>401</v>
       </c>
       <c r="B387" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -5716,7 +6569,7 @@
         <v>401</v>
       </c>
       <c r="B388" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -5724,7 +6577,7 @@
         <v>401</v>
       </c>
       <c r="B389" t="s">
-        <v>63</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -5732,7 +6585,7 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -5740,7 +6593,7 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>182</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -5748,7 +6601,7 @@
         <v>401</v>
       </c>
       <c r="B392" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -5756,7 +6609,7 @@
         <v>401</v>
       </c>
       <c r="B393" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -5764,7 +6617,7 @@
         <v>401</v>
       </c>
       <c r="B394" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -5772,7 +6625,7 @@
         <v>401</v>
       </c>
       <c r="B395" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -5780,7 +6633,7 @@
         <v>401</v>
       </c>
       <c r="B396" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -5788,7 +6641,7 @@
         <v>401</v>
       </c>
       <c r="B397" t="s">
-        <v>379</v>
+        <v>72</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -5796,7 +6649,7 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -5804,7 +6657,7 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -5812,7 +6665,7 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -5820,119 +6673,135 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B402" t="s">
-        <v>384</v>
+        <v>722</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B403" t="s">
-        <v>385</v>
+        <v>723</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B404" t="s">
-        <v>386</v>
+        <v>724</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B405" t="s">
-        <v>387</v>
+        <v>725</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B406" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B407" t="s">
-        <v>388</v>
+        <v>726</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B408" t="s">
-        <v>389</v>
+        <v>727</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B409" t="s">
-        <v>394</v>
+        <v>728</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B410" t="s">
-        <v>396</v>
+        <v>729</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B411" t="s">
-        <v>72</v>
+        <v>730</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B412" t="s">
-        <v>397</v>
+        <v>731</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B413" t="s">
-        <v>398</v>
+        <v>732</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B414" t="s">
-        <v>399</v>
+        <v>733</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>401</v>
+        <v>740</v>
       </c>
       <c r="B415" t="s">
-        <v>400</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>740</v>
+      </c>
+      <c r="B416" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>740</v>
+      </c>
+      <c r="B417" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5940,7 +6809,7 @@
         <v>740</v>
       </c>
       <c r="B418" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5948,7 +6817,7 @@
         <v>740</v>
       </c>
       <c r="B419" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5956,7 +6825,7 @@
         <v>740</v>
       </c>
       <c r="B420" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5964,7 +6833,7 @@
         <v>740</v>
       </c>
       <c r="B421" t="s">
-        <v>725</v>
+        <v>214</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5972,7 +6841,7 @@
         <v>740</v>
       </c>
       <c r="B422" t="s">
-        <v>195</v>
+        <v>741</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5980,7 +6849,7 @@
         <v>740</v>
       </c>
       <c r="B423" t="s">
-        <v>726</v>
+        <v>216</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5988,7 +6857,7 @@
         <v>740</v>
       </c>
       <c r="B424" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5996,7 +6865,7 @@
         <v>740</v>
       </c>
       <c r="B425" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -6004,7 +6873,7 @@
         <v>740</v>
       </c>
       <c r="B426" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -6012,7 +6881,7 @@
         <v>740</v>
       </c>
       <c r="B427" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -6020,7 +6889,7 @@
         <v>740</v>
       </c>
       <c r="B428" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -6028,7 +6897,7 @@
         <v>740</v>
       </c>
       <c r="B429" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -6036,7 +6905,7 @@
         <v>740</v>
       </c>
       <c r="B430" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -6044,135 +6913,151 @@
         <v>740</v>
       </c>
       <c r="B431" t="s">
-        <v>734</v>
+        <v>305</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B432" t="s">
-        <v>735</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B433" t="s">
-        <v>736</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B434" t="s">
-        <v>737</v>
+        <v>14</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B435" t="s">
-        <v>738</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B436" t="s">
-        <v>739</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B437" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B438" t="s">
-        <v>741</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B439" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B440" t="s">
-        <v>742</v>
+        <v>34</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B441" t="s">
-        <v>743</v>
+        <v>61</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B442" t="s">
-        <v>744</v>
+        <v>62</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B443" t="s">
-        <v>745</v>
+        <v>125</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B444" t="s">
-        <v>746</v>
+        <v>126</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B445" t="s">
-        <v>747</v>
+        <v>127</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B446" t="s">
-        <v>748</v>
+        <v>129</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>740</v>
+        <v>169</v>
       </c>
       <c r="B447" t="s">
-        <v>305</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>169</v>
+      </c>
+      <c r="B448" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>169</v>
+      </c>
+      <c r="B449" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -6180,7 +7065,7 @@
         <v>169</v>
       </c>
       <c r="B450" t="s">
-        <v>10</v>
+        <v>390</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -6188,7 +7073,7 @@
         <v>169</v>
       </c>
       <c r="B451" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -6196,7 +7081,7 @@
         <v>169</v>
       </c>
       <c r="B452" t="s">
-        <v>14</v>
+        <v>393</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -6204,7 +7089,7 @@
         <v>169</v>
       </c>
       <c r="B453" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -6212,7 +7097,7 @@
         <v>169</v>
       </c>
       <c r="B454" t="s">
-        <v>19</v>
+        <v>697</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -6220,7 +7105,7 @@
         <v>169</v>
       </c>
       <c r="B455" t="s">
-        <v>20</v>
+        <v>717</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -6228,7 +7113,7 @@
         <v>169</v>
       </c>
       <c r="B456" t="s">
-        <v>26</v>
+        <v>718</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +7121,7 @@
         <v>169</v>
       </c>
       <c r="B457" t="s">
-        <v>33</v>
+        <v>719</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -6244,7 +7129,7 @@
         <v>169</v>
       </c>
       <c r="B458" t="s">
-        <v>34</v>
+        <v>720</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -6252,7 +7137,7 @@
         <v>169</v>
       </c>
       <c r="B459" t="s">
-        <v>61</v>
+        <v>721</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -6260,7 +7145,7 @@
         <v>169</v>
       </c>
       <c r="B460" t="s">
-        <v>62</v>
+        <v>749</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -6268,7 +7153,7 @@
         <v>169</v>
       </c>
       <c r="B461" t="s">
-        <v>125</v>
+        <v>750</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -6276,7 +7161,7 @@
         <v>169</v>
       </c>
       <c r="B462" t="s">
-        <v>126</v>
+        <v>751</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -6284,7 +7169,7 @@
         <v>169</v>
       </c>
       <c r="B463" t="s">
-        <v>127</v>
+        <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -6292,7 +7177,7 @@
         <v>169</v>
       </c>
       <c r="B464" t="s">
-        <v>129</v>
+        <v>753</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -6300,7 +7185,7 @@
         <v>169</v>
       </c>
       <c r="B465" t="s">
-        <v>174</v>
+        <v>754</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +7193,7 @@
         <v>169</v>
       </c>
       <c r="B466" t="s">
-        <v>391</v>
+        <v>755</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -6316,7 +7201,7 @@
         <v>169</v>
       </c>
       <c r="B467" t="s">
-        <v>370</v>
+        <v>756</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -6324,7 +7209,7 @@
         <v>169</v>
       </c>
       <c r="B468" t="s">
-        <v>390</v>
+        <v>757</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -6332,7 +7217,7 @@
         <v>169</v>
       </c>
       <c r="B469" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -6340,7 +7225,7 @@
         <v>169</v>
       </c>
       <c r="B470" t="s">
-        <v>393</v>
+        <v>759</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -6348,7 +7233,7 @@
         <v>169</v>
       </c>
       <c r="B471" t="s">
-        <v>395</v>
+        <v>760</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +7241,7 @@
         <v>169</v>
       </c>
       <c r="B472" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -6364,7 +7249,7 @@
         <v>169</v>
       </c>
       <c r="B473" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -6372,7 +7257,7 @@
         <v>169</v>
       </c>
       <c r="B474" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +7265,7 @@
         <v>169</v>
       </c>
       <c r="B475" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +7273,7 @@
         <v>169</v>
       </c>
       <c r="B476" t="s">
-        <v>720</v>
+        <v>765</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +7281,7 @@
         <v>169</v>
       </c>
       <c r="B477" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -6404,7 +7289,7 @@
         <v>169</v>
       </c>
       <c r="B478" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -6412,7 +7297,7 @@
         <v>169</v>
       </c>
       <c r="B479" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -6420,7 +7305,7 @@
         <v>169</v>
       </c>
       <c r="B480" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +7313,7 @@
         <v>169</v>
       </c>
       <c r="B481" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -6436,7 +7321,7 @@
         <v>169</v>
       </c>
       <c r="B482" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -6444,7 +7329,7 @@
         <v>169</v>
       </c>
       <c r="B483" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +7337,7 @@
         <v>169</v>
       </c>
       <c r="B484" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -6460,151 +7345,167 @@
         <v>169</v>
       </c>
       <c r="B485" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B486" t="s">
-        <v>757</v>
+        <v>16</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B487" t="s">
-        <v>758</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B488" t="s">
-        <v>759</v>
+        <v>30</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B489" t="s">
-        <v>760</v>
+        <v>31</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B490" t="s">
-        <v>761</v>
+        <v>32</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B491" t="s">
-        <v>762</v>
+        <v>41</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B492" t="s">
-        <v>763</v>
+        <v>42</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B493" t="s">
-        <v>764</v>
+        <v>43</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B494" t="s">
-        <v>765</v>
+        <v>44</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B495" t="s">
-        <v>766</v>
+        <v>45</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B496" t="s">
-        <v>767</v>
+        <v>46</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B497" t="s">
-        <v>768</v>
+        <v>47</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B498" t="s">
-        <v>769</v>
+        <v>48</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B499" t="s">
-        <v>770</v>
+        <v>49</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B500" t="s">
-        <v>771</v>
+        <v>66</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B501" t="s">
-        <v>766</v>
+        <v>95</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B502" t="s">
-        <v>772</v>
+        <v>96</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B503" t="s">
-        <v>773</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>170</v>
+      </c>
+      <c r="B504" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>170</v>
+      </c>
+      <c r="B505" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -6612,7 +7513,7 @@
         <v>170</v>
       </c>
       <c r="B506" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -6620,7 +7521,7 @@
         <v>170</v>
       </c>
       <c r="B507" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -6628,7 +7529,7 @@
         <v>170</v>
       </c>
       <c r="B508" t="s">
-        <v>30</v>
+        <v>579</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -6636,7 +7537,7 @@
         <v>170</v>
       </c>
       <c r="B509" t="s">
-        <v>31</v>
+        <v>411</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -6644,7 +7545,7 @@
         <v>170</v>
       </c>
       <c r="B510" t="s">
-        <v>32</v>
+        <v>580</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -6652,7 +7553,7 @@
         <v>170</v>
       </c>
       <c r="B511" t="s">
-        <v>41</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -6660,7 +7561,7 @@
         <v>170</v>
       </c>
       <c r="B512" t="s">
-        <v>42</v>
+        <v>582</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -6668,7 +7569,7 @@
         <v>170</v>
       </c>
       <c r="B513" t="s">
-        <v>43</v>
+        <v>583</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -6676,7 +7577,7 @@
         <v>170</v>
       </c>
       <c r="B514" t="s">
-        <v>44</v>
+        <v>547</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -6684,7 +7585,7 @@
         <v>170</v>
       </c>
       <c r="B515" t="s">
-        <v>45</v>
+        <v>584</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -6692,7 +7593,7 @@
         <v>170</v>
       </c>
       <c r="B516" t="s">
-        <v>46</v>
+        <v>585</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -6700,7 +7601,7 @@
         <v>170</v>
       </c>
       <c r="B517" t="s">
-        <v>47</v>
+        <v>586</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -6708,7 +7609,7 @@
         <v>170</v>
       </c>
       <c r="B518" t="s">
-        <v>48</v>
+        <v>587</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -6716,7 +7617,7 @@
         <v>170</v>
       </c>
       <c r="B519" t="s">
-        <v>49</v>
+        <v>588</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -6724,7 +7625,7 @@
         <v>170</v>
       </c>
       <c r="B520" t="s">
-        <v>66</v>
+        <v>589</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -6732,7 +7633,7 @@
         <v>170</v>
       </c>
       <c r="B521" t="s">
-        <v>95</v>
+        <v>590</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -6740,7 +7641,7 @@
         <v>170</v>
       </c>
       <c r="B522" t="s">
-        <v>96</v>
+        <v>591</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -6748,7 +7649,7 @@
         <v>170</v>
       </c>
       <c r="B523" t="s">
-        <v>97</v>
+        <v>592</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -6756,7 +7657,7 @@
         <v>170</v>
       </c>
       <c r="B524" t="s">
-        <v>98</v>
+        <v>593</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -6764,7 +7665,7 @@
         <v>170</v>
       </c>
       <c r="B525" t="s">
-        <v>99</v>
+        <v>594</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -6772,7 +7673,7 @@
         <v>170</v>
       </c>
       <c r="B526" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -6780,7 +7681,7 @@
         <v>170</v>
       </c>
       <c r="B527" t="s">
-        <v>124</v>
+        <v>595</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -6788,7 +7689,7 @@
         <v>170</v>
       </c>
       <c r="B528" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -6796,7 +7697,7 @@
         <v>170</v>
       </c>
       <c r="B529" t="s">
-        <v>411</v>
+        <v>597</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -6804,7 +7705,7 @@
         <v>170</v>
       </c>
       <c r="B530" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -6812,7 +7713,7 @@
         <v>170</v>
       </c>
       <c r="B531" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -6820,7 +7721,7 @@
         <v>170</v>
       </c>
       <c r="B532" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -6828,7 +7729,7 @@
         <v>170</v>
       </c>
       <c r="B533" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -6836,7 +7737,7 @@
         <v>170</v>
       </c>
       <c r="B534" t="s">
-        <v>547</v>
+        <v>602</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -6844,7 +7745,7 @@
         <v>170</v>
       </c>
       <c r="B535" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -6852,7 +7753,7 @@
         <v>170</v>
       </c>
       <c r="B536" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -6860,7 +7761,7 @@
         <v>170</v>
       </c>
       <c r="B537" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -6868,7 +7769,7 @@
         <v>170</v>
       </c>
       <c r="B538" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -6876,7 +7777,7 @@
         <v>170</v>
       </c>
       <c r="B539" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -6884,7 +7785,7 @@
         <v>170</v>
       </c>
       <c r="B540" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -6892,7 +7793,7 @@
         <v>170</v>
       </c>
       <c r="B541" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -6900,7 +7801,7 @@
         <v>170</v>
       </c>
       <c r="B542" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -6908,7 +7809,7 @@
         <v>170</v>
       </c>
       <c r="B543" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -6916,255 +7817,287 @@
         <v>170</v>
       </c>
       <c r="B544" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B545" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B546" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B547" t="s">
-        <v>595</v>
+        <v>499</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B548" t="s">
-        <v>596</v>
+        <v>494</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B549" t="s">
-        <v>597</v>
+        <v>497</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B550" t="s">
-        <v>598</v>
+        <v>498</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B551" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B552" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B553" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B554" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B555" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B556" t="s">
-        <v>604</v>
+        <v>76</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B557" t="s">
-        <v>605</v>
+        <v>78</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B558" t="s">
-        <v>606</v>
+        <v>79</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B559" t="s">
-        <v>607</v>
+        <v>80</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B560" t="s">
-        <v>608</v>
+        <v>81</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B561" t="s">
-        <v>609</v>
+        <v>82</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B562" t="s">
-        <v>610</v>
+        <v>83</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B563" t="s">
-        <v>611</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B564" t="s">
-        <v>612</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>171</v>
+      </c>
+      <c r="B565" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>171</v>
+      </c>
+      <c r="B566" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B567" t="s">
-        <v>495</v>
+        <v>92</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B568" t="s">
-        <v>496</v>
+        <v>93</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B569" t="s">
-        <v>499</v>
+        <v>94</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B570" t="s">
-        <v>494</v>
+        <v>172</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B571" t="s">
-        <v>497</v>
+        <v>32</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B572" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B573" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B574" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B575" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B576" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B577" t="s">
-        <v>504</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>171</v>
+      </c>
+      <c r="B578" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>171</v>
+      </c>
+      <c r="B579" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -7172,7 +8105,7 @@
         <v>171</v>
       </c>
       <c r="B580" t="s">
-        <v>76</v>
+        <v>513</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -7180,7 +8113,7 @@
         <v>171</v>
       </c>
       <c r="B581" t="s">
-        <v>78</v>
+        <v>514</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -7188,7 +8121,7 @@
         <v>171</v>
       </c>
       <c r="B582" t="s">
-        <v>79</v>
+        <v>515</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -7196,7 +8129,7 @@
         <v>171</v>
       </c>
       <c r="B583" t="s">
-        <v>80</v>
+        <v>516</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -7204,7 +8137,7 @@
         <v>171</v>
       </c>
       <c r="B584" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -7212,7 +8145,7 @@
         <v>171</v>
       </c>
       <c r="B585" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -7220,7 +8153,7 @@
         <v>171</v>
       </c>
       <c r="B586" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -7228,7 +8161,7 @@
         <v>171</v>
       </c>
       <c r="B587" t="s">
-        <v>88</v>
+        <v>520</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -7236,7 +8169,7 @@
         <v>171</v>
       </c>
       <c r="B588" t="s">
-        <v>89</v>
+        <v>521</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -7244,7 +8177,7 @@
         <v>171</v>
       </c>
       <c r="B589" t="s">
-        <v>90</v>
+        <v>522</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -7252,7 +8185,7 @@
         <v>171</v>
       </c>
       <c r="B590" t="s">
-        <v>91</v>
+        <v>523</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -7260,7 +8193,7 @@
         <v>171</v>
       </c>
       <c r="B591" t="s">
-        <v>92</v>
+        <v>524</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -7268,7 +8201,7 @@
         <v>171</v>
       </c>
       <c r="B592" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -7276,7 +8209,7 @@
         <v>171</v>
       </c>
       <c r="B593" t="s">
-        <v>94</v>
+        <v>526</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -7284,7 +8217,7 @@
         <v>171</v>
       </c>
       <c r="B594" t="s">
-        <v>172</v>
+        <v>527</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -7292,7 +8225,7 @@
         <v>171</v>
       </c>
       <c r="B595" t="s">
-        <v>32</v>
+        <v>528</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -7300,7 +8233,7 @@
         <v>171</v>
       </c>
       <c r="B596" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -7308,7 +8241,7 @@
         <v>171</v>
       </c>
       <c r="B597" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -7316,7 +8249,7 @@
         <v>171</v>
       </c>
       <c r="B598" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -7324,7 +8257,7 @@
         <v>171</v>
       </c>
       <c r="B599" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -7332,7 +8265,7 @@
         <v>171</v>
       </c>
       <c r="B600" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -7340,7 +8273,7 @@
         <v>171</v>
       </c>
       <c r="B601" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -7348,7 +8281,7 @@
         <v>171</v>
       </c>
       <c r="B602" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -7356,7 +8289,7 @@
         <v>171</v>
       </c>
       <c r="B603" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -7364,7 +8297,7 @@
         <v>171</v>
       </c>
       <c r="B604" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -7372,7 +8305,7 @@
         <v>171</v>
       </c>
       <c r="B605" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -7380,7 +8313,7 @@
         <v>171</v>
       </c>
       <c r="B606" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -7388,7 +8321,7 @@
         <v>171</v>
       </c>
       <c r="B607" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -7396,7 +8329,7 @@
         <v>171</v>
       </c>
       <c r="B608" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -7404,7 +8337,7 @@
         <v>171</v>
       </c>
       <c r="B609" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -7412,7 +8345,7 @@
         <v>171</v>
       </c>
       <c r="B610" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -7420,7 +8353,7 @@
         <v>171</v>
       </c>
       <c r="B611" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -7428,7 +8361,7 @@
         <v>171</v>
       </c>
       <c r="B612" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -7436,7 +8369,7 @@
         <v>171</v>
       </c>
       <c r="B613" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -7444,7 +8377,7 @@
         <v>171</v>
       </c>
       <c r="B614" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -7452,7 +8385,7 @@
         <v>171</v>
       </c>
       <c r="B615" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -7460,7 +8393,7 @@
         <v>171</v>
       </c>
       <c r="B616" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -7468,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="B617" t="s">
-        <v>526</v>
+        <v>196</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -7476,7 +8409,7 @@
         <v>171</v>
       </c>
       <c r="B618" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -7484,7 +8417,7 @@
         <v>171</v>
       </c>
       <c r="B619" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -7492,7 +8425,7 @@
         <v>171</v>
       </c>
       <c r="B620" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -7500,7 +8433,7 @@
         <v>171</v>
       </c>
       <c r="B621" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -7508,7 +8441,7 @@
         <v>171</v>
       </c>
       <c r="B622" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -7516,7 +8449,7 @@
         <v>171</v>
       </c>
       <c r="B623" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -7524,7 +8457,7 @@
         <v>171</v>
       </c>
       <c r="B624" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -7532,7 +8465,7 @@
         <v>171</v>
       </c>
       <c r="B625" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -7540,7 +8473,7 @@
         <v>171</v>
       </c>
       <c r="B626" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -7548,7 +8481,7 @@
         <v>171</v>
       </c>
       <c r="B627" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -7556,7 +8489,7 @@
         <v>171</v>
       </c>
       <c r="B628" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -7564,7 +8497,7 @@
         <v>171</v>
       </c>
       <c r="B629" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -7572,7 +8505,7 @@
         <v>171</v>
       </c>
       <c r="B630" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -7580,7 +8513,7 @@
         <v>171</v>
       </c>
       <c r="B631" t="s">
-        <v>540</v>
+        <v>90</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -7588,7 +8521,7 @@
         <v>171</v>
       </c>
       <c r="B632" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -7596,7 +8529,7 @@
         <v>171</v>
       </c>
       <c r="B633" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -7604,7 +8537,7 @@
         <v>171</v>
       </c>
       <c r="B634" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -7612,7 +8545,7 @@
         <v>171</v>
       </c>
       <c r="B635" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -7620,7 +8553,7 @@
         <v>171</v>
       </c>
       <c r="B636" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -7628,7 +8561,7 @@
         <v>171</v>
       </c>
       <c r="B637" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -7636,7 +8569,7 @@
         <v>171</v>
       </c>
       <c r="B638" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -7644,7 +8577,7 @@
         <v>171</v>
       </c>
       <c r="B639" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -7652,7 +8585,7 @@
         <v>171</v>
       </c>
       <c r="B640" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -7660,7 +8593,7 @@
         <v>171</v>
       </c>
       <c r="B641" t="s">
-        <v>196</v>
+        <v>572</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -7668,7 +8601,7 @@
         <v>171</v>
       </c>
       <c r="B642" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -7676,7 +8609,7 @@
         <v>171</v>
       </c>
       <c r="B643" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -7684,7 +8617,7 @@
         <v>171</v>
       </c>
       <c r="B644" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -7692,7 +8625,7 @@
         <v>171</v>
       </c>
       <c r="B645" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -7700,7 +8633,7 @@
         <v>171</v>
       </c>
       <c r="B646" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -7708,7 +8641,7 @@
         <v>171</v>
       </c>
       <c r="B647" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -7716,199 +8649,215 @@
         <v>171</v>
       </c>
       <c r="B648" t="s">
-        <v>556</v>
+        <v>196</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B649" t="s">
-        <v>557</v>
+        <v>406</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B650" t="s">
-        <v>558</v>
+        <v>407</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B651" t="s">
-        <v>559</v>
+        <v>408</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B652" t="s">
-        <v>560</v>
+        <v>410</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B653" t="s">
-        <v>561</v>
+        <v>411</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B654" t="s">
-        <v>562</v>
+        <v>412</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B655" t="s">
-        <v>90</v>
+        <v>413</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B656" t="s">
-        <v>563</v>
+        <v>414</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B657" t="s">
-        <v>564</v>
+        <v>415</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B658" t="s">
-        <v>565</v>
+        <v>416</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B659" t="s">
-        <v>566</v>
+        <v>417</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B660" t="s">
-        <v>567</v>
+        <v>418</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B661" t="s">
-        <v>568</v>
+        <v>419</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B662" t="s">
-        <v>569</v>
+        <v>420</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B663" t="s">
-        <v>570</v>
+        <v>421</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B664" t="s">
-        <v>571</v>
+        <v>422</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B665" t="s">
-        <v>572</v>
+        <v>423</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B666" t="s">
-        <v>573</v>
+        <v>424</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B667" t="s">
-        <v>574</v>
+        <v>425</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B668" t="s">
-        <v>575</v>
+        <v>426</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B669" t="s">
-        <v>576</v>
+        <v>427</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B670" t="s">
-        <v>577</v>
+        <v>428</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B671" t="s">
-        <v>578</v>
+        <v>429</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="B672" t="s">
-        <v>196</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>409</v>
+      </c>
+      <c r="B673" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>409</v>
+      </c>
+      <c r="B674" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -7916,7 +8865,7 @@
         <v>409</v>
       </c>
       <c r="B675" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -7924,7 +8873,7 @@
         <v>409</v>
       </c>
       <c r="B676" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -7932,7 +8881,7 @@
         <v>409</v>
       </c>
       <c r="B677" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -7940,7 +8889,7 @@
         <v>409</v>
       </c>
       <c r="B678" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -7948,7 +8897,7 @@
         <v>409</v>
       </c>
       <c r="B679" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -7956,7 +8905,7 @@
         <v>409</v>
       </c>
       <c r="B680" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -7964,7 +8913,7 @@
         <v>409</v>
       </c>
       <c r="B681" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -7972,7 +8921,7 @@
         <v>409</v>
       </c>
       <c r="B682" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -7980,7 +8929,7 @@
         <v>409</v>
       </c>
       <c r="B683" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -7988,7 +8937,7 @@
         <v>409</v>
       </c>
       <c r="B684" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -7996,7 +8945,7 @@
         <v>409</v>
       </c>
       <c r="B685" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -8004,7 +8953,7 @@
         <v>409</v>
       </c>
       <c r="B686" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -8012,7 +8961,7 @@
         <v>409</v>
       </c>
       <c r="B687" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -8020,7 +8969,7 @@
         <v>409</v>
       </c>
       <c r="B688" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -8028,7 +8977,7 @@
         <v>409</v>
       </c>
       <c r="B689" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -8036,7 +8985,7 @@
         <v>409</v>
       </c>
       <c r="B690" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -8044,7 +8993,7 @@
         <v>409</v>
       </c>
       <c r="B691" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -8052,7 +9001,7 @@
         <v>409</v>
       </c>
       <c r="B692" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -8060,7 +9009,7 @@
         <v>409</v>
       </c>
       <c r="B693" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -8068,7 +9017,7 @@
         <v>409</v>
       </c>
       <c r="B694" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -8076,7 +9025,7 @@
         <v>409</v>
       </c>
       <c r="B695" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -8084,7 +9033,7 @@
         <v>409</v>
       </c>
       <c r="B696" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -8092,7 +9041,7 @@
         <v>409</v>
       </c>
       <c r="B697" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -8100,7 +9049,7 @@
         <v>409</v>
       </c>
       <c r="B698" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -8108,7 +9057,7 @@
         <v>409</v>
       </c>
       <c r="B699" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -8116,7 +9065,7 @@
         <v>409</v>
       </c>
       <c r="B700" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -8124,7 +9073,7 @@
         <v>409</v>
       </c>
       <c r="B701" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -8132,7 +9081,7 @@
         <v>409</v>
       </c>
       <c r="B702" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -8140,7 +9089,7 @@
         <v>409</v>
       </c>
       <c r="B703" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -8148,7 +9097,7 @@
         <v>409</v>
       </c>
       <c r="B704" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -8156,7 +9105,7 @@
         <v>409</v>
       </c>
       <c r="B705" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -8164,7 +9113,7 @@
         <v>409</v>
       </c>
       <c r="B706" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -8172,7 +9121,7 @@
         <v>409</v>
       </c>
       <c r="B707" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +9129,7 @@
         <v>409</v>
       </c>
       <c r="B708" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -8188,7 +9137,7 @@
         <v>409</v>
       </c>
       <c r="B709" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -8196,7 +9145,7 @@
         <v>409</v>
       </c>
       <c r="B710" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -8204,7 +9153,7 @@
         <v>409</v>
       </c>
       <c r="B711" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -8212,7 +9161,7 @@
         <v>409</v>
       </c>
       <c r="B712" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -8220,7 +9169,7 @@
         <v>409</v>
       </c>
       <c r="B713" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -8228,7 +9177,7 @@
         <v>409</v>
       </c>
       <c r="B714" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +9185,7 @@
         <v>409</v>
       </c>
       <c r="B715" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -8244,7 +9193,7 @@
         <v>409</v>
       </c>
       <c r="B716" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +9201,7 @@
         <v>409</v>
       </c>
       <c r="B717" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
@@ -8260,7 +9209,7 @@
         <v>409</v>
       </c>
       <c r="B718" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
@@ -8268,7 +9217,7 @@
         <v>409</v>
       </c>
       <c r="B719" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +9225,7 @@
         <v>409</v>
       </c>
       <c r="B720" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -8284,7 +9233,7 @@
         <v>409</v>
       </c>
       <c r="B721" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
@@ -8292,7 +9241,7 @@
         <v>409</v>
       </c>
       <c r="B722" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
@@ -8300,7 +9249,7 @@
         <v>409</v>
       </c>
       <c r="B723" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -8308,7 +9257,7 @@
         <v>409</v>
       </c>
       <c r="B724" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -8316,7 +9265,7 @@
         <v>409</v>
       </c>
       <c r="B725" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -8324,7 +9273,7 @@
         <v>409</v>
       </c>
       <c r="B726" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -8332,7 +9281,7 @@
         <v>409</v>
       </c>
       <c r="B727" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -8340,7 +9289,7 @@
         <v>409</v>
       </c>
       <c r="B728" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
@@ -8348,7 +9297,7 @@
         <v>409</v>
       </c>
       <c r="B729" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
@@ -8356,7 +9305,7 @@
         <v>409</v>
       </c>
       <c r="B730" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
@@ -8364,7 +9313,7 @@
         <v>409</v>
       </c>
       <c r="B731" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
@@ -8372,7 +9321,7 @@
         <v>409</v>
       </c>
       <c r="B732" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -8380,7 +9329,7 @@
         <v>409</v>
       </c>
       <c r="B733" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -8388,7 +9337,7 @@
         <v>409</v>
       </c>
       <c r="B734" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,215 +9345,231 @@
         <v>409</v>
       </c>
       <c r="B735" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B736" t="s">
-        <v>467</v>
+        <v>614</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B737" t="s">
-        <v>468</v>
+        <v>615</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B738" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B739" t="s">
-        <v>470</v>
+        <v>617</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B740" t="s">
-        <v>471</v>
+        <v>616</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B741" t="s">
-        <v>472</v>
+        <v>618</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B742" t="s">
-        <v>473</v>
+        <v>619</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B743" t="s">
-        <v>474</v>
+        <v>620</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B744" t="s">
-        <v>475</v>
+        <v>621</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B745" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B746" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B747" t="s">
-        <v>478</v>
+        <v>623</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B748" t="s">
-        <v>479</v>
+        <v>624</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B749" t="s">
-        <v>480</v>
+        <v>625</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B750" t="s">
-        <v>481</v>
+        <v>626</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B751" t="s">
-        <v>482</v>
+        <v>627</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B752" t="s">
-        <v>483</v>
+        <v>628</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B753" t="s">
-        <v>484</v>
+        <v>629</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B754" t="s">
-        <v>485</v>
+        <v>630</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B755" t="s">
-        <v>486</v>
+        <v>631</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B756" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B757" t="s">
-        <v>488</v>
+        <v>632</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B758" t="s">
-        <v>489</v>
+        <v>633</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B759" t="s">
-        <v>490</v>
+        <v>634</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B760" t="s">
-        <v>493</v>
+        <v>635</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>409</v>
+        <v>613</v>
       </c>
       <c r="B761" t="s">
-        <v>492</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>613</v>
+      </c>
+      <c r="B762" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>613</v>
+      </c>
+      <c r="B763" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -8612,7 +9577,7 @@
         <v>613</v>
       </c>
       <c r="B764" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
@@ -8620,7 +9585,7 @@
         <v>613</v>
       </c>
       <c r="B765" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
@@ -8628,7 +9593,7 @@
         <v>613</v>
       </c>
       <c r="B766" t="s">
-        <v>440</v>
+        <v>641</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,7 +9601,7 @@
         <v>613</v>
       </c>
       <c r="B767" t="s">
-        <v>617</v>
+        <v>451</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -8644,7 +9609,7 @@
         <v>613</v>
       </c>
       <c r="B768" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -8652,7 +9617,7 @@
         <v>613</v>
       </c>
       <c r="B769" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
@@ -8660,7 +9625,7 @@
         <v>613</v>
       </c>
       <c r="B770" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
@@ -8668,7 +9633,7 @@
         <v>613</v>
       </c>
       <c r="B771" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
@@ -8676,7 +9641,7 @@
         <v>613</v>
       </c>
       <c r="B772" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
@@ -8684,7 +9649,7 @@
         <v>613</v>
       </c>
       <c r="B773" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
@@ -8692,7 +9657,7 @@
         <v>613</v>
       </c>
       <c r="B774" t="s">
-        <v>419</v>
+        <v>647</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
@@ -8700,7 +9665,7 @@
         <v>613</v>
       </c>
       <c r="B775" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -8708,7 +9673,7 @@
         <v>613</v>
       </c>
       <c r="B776" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -8716,7 +9681,7 @@
         <v>613</v>
       </c>
       <c r="B777" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
@@ -8724,7 +9689,7 @@
         <v>613</v>
       </c>
       <c r="B778" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -8732,7 +9697,7 @@
         <v>613</v>
       </c>
       <c r="B779" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -8740,7 +9705,7 @@
         <v>613</v>
       </c>
       <c r="B780" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
@@ -8748,7 +9713,7 @@
         <v>613</v>
       </c>
       <c r="B781" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -8756,7 +9721,7 @@
         <v>613</v>
       </c>
       <c r="B782" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -8764,7 +9729,7 @@
         <v>613</v>
       </c>
       <c r="B783" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
@@ -8772,7 +9737,7 @@
         <v>613</v>
       </c>
       <c r="B784" t="s">
-        <v>536</v>
+        <v>657</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -8780,7 +9745,7 @@
         <v>613</v>
       </c>
       <c r="B785" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
@@ -8788,7 +9753,7 @@
         <v>613</v>
       </c>
       <c r="B786" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
@@ -8796,7 +9761,7 @@
         <v>613</v>
       </c>
       <c r="B787" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
@@ -8804,7 +9769,7 @@
         <v>613</v>
       </c>
       <c r="B788" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -8812,7 +9777,7 @@
         <v>613</v>
       </c>
       <c r="B789" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -8820,231 +9785,2015 @@
         <v>613</v>
       </c>
       <c r="B790" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B791" t="s">
-        <v>638</v>
+        <v>778</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B792" t="s">
-        <v>639</v>
+        <v>779</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B793" t="s">
-        <v>640</v>
+        <v>780</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B794" t="s">
-        <v>641</v>
+        <v>781</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B795" t="s">
-        <v>451</v>
+        <v>782</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B796" t="s">
-        <v>642</v>
+        <v>783</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B797" t="s">
-        <v>643</v>
+        <v>784</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B798" t="s">
-        <v>644</v>
+        <v>785</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B799" t="s">
-        <v>645</v>
+        <v>786</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B800" t="s">
-        <v>491</v>
+        <v>787</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B801" t="s">
-        <v>646</v>
+        <v>788</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B802" t="s">
-        <v>647</v>
+        <v>789</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B803" t="s">
-        <v>648</v>
+        <v>790</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B804" t="s">
-        <v>649</v>
+        <v>791</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B805" t="s">
-        <v>650</v>
+        <v>792</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B806" t="s">
-        <v>651</v>
+        <v>793</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B807" t="s">
-        <v>652</v>
+        <v>794</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B808" t="s">
-        <v>653</v>
+        <v>795</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B809" t="s">
-        <v>654</v>
+        <v>796</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B810" t="s">
-        <v>655</v>
+        <v>797</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B811" t="s">
-        <v>656</v>
+        <v>798</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B812" t="s">
-        <v>657</v>
+        <v>799</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B813" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B814" t="s">
-        <v>659</v>
+        <v>801</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B815" t="s">
-        <v>660</v>
+        <v>802</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B816" t="s">
-        <v>661</v>
+        <v>803</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B817" t="s">
-        <v>662</v>
+        <v>428</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>613</v>
+        <v>774</v>
       </c>
       <c r="B818" t="s">
-        <v>663</v>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>774</v>
+      </c>
+      <c r="B819" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>774</v>
+      </c>
+      <c r="B820" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>774</v>
+      </c>
+      <c r="B821" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>774</v>
+      </c>
+      <c r="B822" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>774</v>
+      </c>
+      <c r="B823" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>774</v>
+      </c>
+      <c r="B824" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>774</v>
+      </c>
+      <c r="B825" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>774</v>
+      </c>
+      <c r="B826" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>774</v>
+      </c>
+      <c r="B827" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>774</v>
+      </c>
+      <c r="B828" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>774</v>
+      </c>
+      <c r="B829" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>774</v>
+      </c>
+      <c r="B830" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>774</v>
+      </c>
+      <c r="B831" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>774</v>
+      </c>
+      <c r="B832" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>774</v>
+      </c>
+      <c r="B833" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>774</v>
+      </c>
+      <c r="B834" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>774</v>
+      </c>
+      <c r="B835" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>774</v>
+      </c>
+      <c r="B836" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>774</v>
+      </c>
+      <c r="B837" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>774</v>
+      </c>
+      <c r="B838" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>774</v>
+      </c>
+      <c r="B839" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>774</v>
+      </c>
+      <c r="B840" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>774</v>
+      </c>
+      <c r="B841" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>774</v>
+      </c>
+      <c r="B842" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>775</v>
+      </c>
+      <c r="B843" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>775</v>
+      </c>
+      <c r="B844" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>775</v>
+      </c>
+      <c r="B845" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>775</v>
+      </c>
+      <c r="B846" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>775</v>
+      </c>
+      <c r="B847" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>775</v>
+      </c>
+      <c r="B848" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>775</v>
+      </c>
+      <c r="B849" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>775</v>
+      </c>
+      <c r="B850" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>775</v>
+      </c>
+      <c r="B851" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>775</v>
+      </c>
+      <c r="B852" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>775</v>
+      </c>
+      <c r="B853" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>775</v>
+      </c>
+      <c r="B854" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>775</v>
+      </c>
+      <c r="B855" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>775</v>
+      </c>
+      <c r="B856" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>775</v>
+      </c>
+      <c r="B857" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>775</v>
+      </c>
+      <c r="B858" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>775</v>
+      </c>
+      <c r="B859" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>775</v>
+      </c>
+      <c r="B860" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>775</v>
+      </c>
+      <c r="B861" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>775</v>
+      </c>
+      <c r="B862" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>775</v>
+      </c>
+      <c r="B863" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>775</v>
+      </c>
+      <c r="B864" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>775</v>
+      </c>
+      <c r="B865" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>775</v>
+      </c>
+      <c r="B866" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>775</v>
+      </c>
+      <c r="B867" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>775</v>
+      </c>
+      <c r="B868" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>775</v>
+      </c>
+      <c r="B869" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>775</v>
+      </c>
+      <c r="B870" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>775</v>
+      </c>
+      <c r="B871" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>775</v>
+      </c>
+      <c r="B872" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>775</v>
+      </c>
+      <c r="B873" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>775</v>
+      </c>
+      <c r="B874" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>775</v>
+      </c>
+      <c r="B875" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>775</v>
+      </c>
+      <c r="B876" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>775</v>
+      </c>
+      <c r="B877" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>775</v>
+      </c>
+      <c r="B878" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>775</v>
+      </c>
+      <c r="B879" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>775</v>
+      </c>
+      <c r="B880" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>775</v>
+      </c>
+      <c r="B881" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>775</v>
+      </c>
+      <c r="B882" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>775</v>
+      </c>
+      <c r="B883" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>775</v>
+      </c>
+      <c r="B884" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>775</v>
+      </c>
+      <c r="B885" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>775</v>
+      </c>
+      <c r="B886" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>775</v>
+      </c>
+      <c r="B887" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>775</v>
+      </c>
+      <c r="B888" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>775</v>
+      </c>
+      <c r="B889" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>775</v>
+      </c>
+      <c r="B890" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>775</v>
+      </c>
+      <c r="B891" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>775</v>
+      </c>
+      <c r="B892" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>775</v>
+      </c>
+      <c r="B893" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>775</v>
+      </c>
+      <c r="B894" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>775</v>
+      </c>
+      <c r="B895" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>775</v>
+      </c>
+      <c r="B896" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>775</v>
+      </c>
+      <c r="B897" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>775</v>
+      </c>
+      <c r="B898" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>775</v>
+      </c>
+      <c r="B899" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>775</v>
+      </c>
+      <c r="B900" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>775</v>
+      </c>
+      <c r="B901" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>775</v>
+      </c>
+      <c r="B902" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>776</v>
+      </c>
+      <c r="B903" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>776</v>
+      </c>
+      <c r="B904" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>776</v>
+      </c>
+      <c r="B905" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>776</v>
+      </c>
+      <c r="B906" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>776</v>
+      </c>
+      <c r="B907" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>776</v>
+      </c>
+      <c r="B908" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>776</v>
+      </c>
+      <c r="B909" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>776</v>
+      </c>
+      <c r="B910" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>776</v>
+      </c>
+      <c r="B911" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>776</v>
+      </c>
+      <c r="B912" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>776</v>
+      </c>
+      <c r="B913" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>776</v>
+      </c>
+      <c r="B914" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>776</v>
+      </c>
+      <c r="B915" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>776</v>
+      </c>
+      <c r="B916" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>776</v>
+      </c>
+      <c r="B917" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>776</v>
+      </c>
+      <c r="B918" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>776</v>
+      </c>
+      <c r="B919" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>776</v>
+      </c>
+      <c r="B920" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>776</v>
+      </c>
+      <c r="B921" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>776</v>
+      </c>
+      <c r="B922" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>776</v>
+      </c>
+      <c r="B923" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>776</v>
+      </c>
+      <c r="B924" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>776</v>
+      </c>
+      <c r="B925" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>776</v>
+      </c>
+      <c r="B926" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>776</v>
+      </c>
+      <c r="B927" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>776</v>
+      </c>
+      <c r="B928" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>776</v>
+      </c>
+      <c r="B929" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>776</v>
+      </c>
+      <c r="B930" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>776</v>
+      </c>
+      <c r="B931" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>776</v>
+      </c>
+      <c r="B932" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>776</v>
+      </c>
+      <c r="B933" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>776</v>
+      </c>
+      <c r="B934" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>776</v>
+      </c>
+      <c r="B935" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>776</v>
+      </c>
+      <c r="B936" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>776</v>
+      </c>
+      <c r="B937" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>776</v>
+      </c>
+      <c r="B938" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>776</v>
+      </c>
+      <c r="B939" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>776</v>
+      </c>
+      <c r="B940" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>776</v>
+      </c>
+      <c r="B941" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>776</v>
+      </c>
+      <c r="B942" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>776</v>
+      </c>
+      <c r="B943" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>776</v>
+      </c>
+      <c r="B944" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>776</v>
+      </c>
+      <c r="B945" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>776</v>
+      </c>
+      <c r="B946" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>776</v>
+      </c>
+      <c r="B947" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>776</v>
+      </c>
+      <c r="B948" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>776</v>
+      </c>
+      <c r="B949" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>776</v>
+      </c>
+      <c r="B950" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>776</v>
+      </c>
+      <c r="B951" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>776</v>
+      </c>
+      <c r="B952" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>776</v>
+      </c>
+      <c r="B953" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>776</v>
+      </c>
+      <c r="B954" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>776</v>
+      </c>
+      <c r="B955" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>776</v>
+      </c>
+      <c r="B956" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>776</v>
+      </c>
+      <c r="B957" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>776</v>
+      </c>
+      <c r="B958" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>776</v>
+      </c>
+      <c r="B959" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>776</v>
+      </c>
+      <c r="B960" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>776</v>
+      </c>
+      <c r="B961" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>776</v>
+      </c>
+      <c r="B962" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>776</v>
+      </c>
+      <c r="B963" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>776</v>
+      </c>
+      <c r="B964" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>776</v>
+      </c>
+      <c r="B965" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>776</v>
+      </c>
+      <c r="B966" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>776</v>
+      </c>
+      <c r="B967" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>776</v>
+      </c>
+      <c r="B968" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>776</v>
+      </c>
+      <c r="B969" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>776</v>
+      </c>
+      <c r="B970" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>776</v>
+      </c>
+      <c r="B971" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>776</v>
+      </c>
+      <c r="B972" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>776</v>
+      </c>
+      <c r="B973" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>776</v>
+      </c>
+      <c r="B974" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>776</v>
+      </c>
+      <c r="B975" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>776</v>
+      </c>
+      <c r="B976" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>776</v>
+      </c>
+      <c r="B977" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>776</v>
+      </c>
+      <c r="B978" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>776</v>
+      </c>
+      <c r="B979" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>776</v>
+      </c>
+      <c r="B980" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>776</v>
+      </c>
+      <c r="B981" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>776</v>
+      </c>
+      <c r="B982" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>776</v>
+      </c>
+      <c r="B983" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>776</v>
+      </c>
+      <c r="B984" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>776</v>
+      </c>
+      <c r="B985" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>776</v>
+      </c>
+      <c r="B986" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>776</v>
+      </c>
+      <c r="B987" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>776</v>
+      </c>
+      <c r="B988" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>776</v>
+      </c>
+      <c r="B989" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>776</v>
+      </c>
+      <c r="B990" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>776</v>
+      </c>
+      <c r="B991" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>776</v>
+      </c>
+      <c r="B992" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>776</v>
+      </c>
+      <c r="B993" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>776</v>
+      </c>
+      <c r="B994" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>776</v>
+      </c>
+      <c r="B995" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>776</v>
+      </c>
+      <c r="B996" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>776</v>
+      </c>
+      <c r="B997" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>776</v>
+      </c>
+      <c r="B998" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>776</v>
+      </c>
+      <c r="B999" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/categorias.xlsx
+++ b/Dataset/categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agusc\Documents\GIT\facturas\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB188F43-B848-4986-B740-3074E0B44E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686CB2C-CF13-47DE-A0F9-DDFD3F6F3700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02A39657-0D92-40AF-838F-75E909DD76D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1021">
   <si>
     <t>Categoria</t>
   </si>
@@ -3094,6 +3094,9 @@
   </si>
   <si>
     <t>RAQUETA</t>
+  </si>
+  <si>
+    <t>AGUA</t>
   </si>
 </sst>
 </file>
@@ -3137,10 +3140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3455,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABF3621-1C52-45DF-82E6-0AD397EB0999}">
-  <dimension ref="A1:C1041"/>
+  <dimension ref="A1:C1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1033" workbookViewId="0">
-      <selection activeCell="A1014" sqref="A1014:XFD1015"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3476,28 +3480,28 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3505,7 +3509,7 @@
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3513,7 +3517,7 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3521,7 +3525,7 @@
         <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3529,7 +3533,7 @@
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3537,7 +3541,7 @@
         <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3545,7 +3549,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3553,7 +3557,7 @@
         <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3561,7 +3565,7 @@
         <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3569,7 +3573,7 @@
         <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3577,7 +3581,7 @@
         <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3585,7 +3589,7 @@
         <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3593,7 +3597,7 @@
         <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3601,7 +3605,7 @@
         <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3609,7 +3613,7 @@
         <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3617,7 +3621,7 @@
         <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3625,7 +3629,7 @@
         <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3633,7 +3637,7 @@
         <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3641,7 +3645,7 @@
         <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3649,7 +3653,7 @@
         <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3657,7 +3661,7 @@
         <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3665,7 +3669,7 @@
         <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3673,7 +3677,7 @@
         <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -3681,7 +3685,7 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3689,7 +3693,7 @@
         <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3701,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3705,7 +3709,7 @@
         <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3713,7 +3717,7 @@
         <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3721,7 +3725,7 @@
         <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,7 +3733,7 @@
         <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,7 +3741,7 @@
         <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3745,7 +3749,7 @@
         <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3753,7 +3757,7 @@
         <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3761,7 +3765,7 @@
         <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3769,7 +3773,7 @@
         <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3777,7 +3781,7 @@
         <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3785,7 +3789,7 @@
         <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3793,7 +3797,7 @@
         <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3801,7 +3805,7 @@
         <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3809,7 +3813,7 @@
         <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3817,7 +3821,7 @@
         <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3825,7 +3829,7 @@
         <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3833,7 +3837,7 @@
         <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3841,7 +3845,7 @@
         <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3849,7 +3853,7 @@
         <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3857,7 +3861,7 @@
         <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3865,7 +3869,7 @@
         <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3873,7 +3877,7 @@
         <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3881,7 +3885,7 @@
         <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3889,7 +3893,7 @@
         <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3897,7 +3901,7 @@
         <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3905,7 +3909,7 @@
         <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3913,7 +3917,7 @@
         <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3921,7 +3925,7 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3929,7 +3933,7 @@
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3937,7 +3941,7 @@
         <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3945,7 +3949,7 @@
         <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3953,7 +3957,7 @@
         <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3961,7 +3965,7 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3969,7 +3973,7 @@
         <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3977,7 +3981,7 @@
         <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3985,7 +3989,7 @@
         <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3993,7 +3997,7 @@
         <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4001,7 +4005,7 @@
         <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4009,7 +4013,7 @@
         <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4017,7 +4021,7 @@
         <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4025,7 +4029,7 @@
         <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4033,7 +4037,7 @@
         <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4041,7 +4045,7 @@
         <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4049,7 +4053,7 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4057,7 +4061,7 @@
         <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4065,7 +4069,7 @@
         <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4073,7 +4077,7 @@
         <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4085,7 @@
         <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4089,7 +4093,7 @@
         <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4101,7 @@
         <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,7 +4109,7 @@
         <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4113,7 +4117,7 @@
         <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +4125,7 @@
         <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4129,7 +4133,7 @@
         <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4137,7 +4141,7 @@
         <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4145,7 +4149,7 @@
         <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4153,7 +4157,7 @@
         <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4161,7 +4165,7 @@
         <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4169,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4177,7 +4181,7 @@
         <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4185,7 +4189,7 @@
         <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4193,7 +4197,7 @@
         <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4201,7 +4205,7 @@
         <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4209,7 +4213,7 @@
         <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4217,7 +4221,7 @@
         <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4225,7 +4229,7 @@
         <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4233,7 +4237,7 @@
         <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4245,7 @@
         <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4249,7 +4253,7 @@
         <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4257,7 +4261,7 @@
         <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4265,7 +4269,7 @@
         <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4273,7 +4277,7 @@
         <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4281,7 +4285,7 @@
         <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4289,7 +4293,7 @@
         <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4297,7 +4301,7 @@
         <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4305,7 +4309,7 @@
         <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4313,7 +4317,7 @@
         <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4321,7 +4325,7 @@
         <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4329,15 +4333,15 @@
         <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4345,7 +4349,7 @@
         <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4353,7 +4357,7 @@
         <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4361,7 +4365,7 @@
         <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4369,7 +4373,7 @@
         <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4377,7 +4381,7 @@
         <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4385,7 +4389,7 @@
         <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4393,7 +4397,7 @@
         <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4401,7 +4405,7 @@
         <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4409,7 +4413,7 @@
         <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4417,7 +4421,7 @@
         <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4425,7 +4429,7 @@
         <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4433,7 +4437,7 @@
         <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4441,7 +4445,7 @@
         <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4449,7 +4453,7 @@
         <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4457,7 +4461,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4465,7 +4469,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4473,7 +4477,7 @@
         <v>165</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +4485,7 @@
         <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4489,7 +4493,7 @@
         <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4497,15 +4501,15 @@
         <v>165</v>
       </c>
       <c r="B129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4517,7 @@
         <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,7 +4525,7 @@
         <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4529,7 +4533,7 @@
         <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4537,7 +4541,7 @@
         <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4545,7 +4549,7 @@
         <v>166</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -4553,7 +4557,7 @@
         <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>689</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -4561,7 +4565,7 @@
         <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -4569,7 +4573,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -4577,7 +4581,7 @@
         <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -4585,7 +4589,7 @@
         <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>691</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -4593,7 +4597,7 @@
         <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -4601,7 +4605,7 @@
         <v>166</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -4609,7 +4613,7 @@
         <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -4617,7 +4621,7 @@
         <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -4625,7 +4629,7 @@
         <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -4633,7 +4637,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -4641,7 +4645,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -4649,7 +4653,7 @@
         <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>692</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -4657,7 +4661,7 @@
         <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -4665,7 +4669,7 @@
         <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -4673,7 +4677,7 @@
         <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -4681,7 +4685,7 @@
         <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -4689,7 +4693,7 @@
         <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -4697,7 +4701,7 @@
         <v>166</v>
       </c>
       <c r="B154" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -4705,7 +4709,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -4713,7 +4717,7 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -4721,7 +4725,7 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -4729,7 +4733,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -4737,7 +4741,7 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -4745,7 +4749,7 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -4753,7 +4757,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4761,7 +4765,7 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4769,7 +4773,7 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4777,7 +4781,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4785,7 +4789,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4793,7 +4797,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4801,7 +4805,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4809,7 +4813,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4821,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4829,7 @@
         <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,15 +4837,15 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>672</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>716</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -4849,7 +4853,7 @@
         <v>672</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,7 +4861,7 @@
         <v>672</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -4865,7 +4869,7 @@
         <v>672</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -4873,7 +4877,7 @@
         <v>672</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -4881,7 +4885,7 @@
         <v>672</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -4889,7 +4893,7 @@
         <v>672</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -4897,7 +4901,7 @@
         <v>672</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -4905,7 +4909,7 @@
         <v>672</v>
       </c>
       <c r="B180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,7 +4917,7 @@
         <v>672</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4921,7 +4925,7 @@
         <v>672</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4929,7 +4933,7 @@
         <v>672</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +4941,7 @@
         <v>672</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -4945,7 +4949,7 @@
         <v>672</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -4953,7 +4957,7 @@
         <v>672</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -4961,7 +4965,7 @@
         <v>672</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -4969,7 +4973,7 @@
         <v>672</v>
       </c>
       <c r="B188" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4977,7 +4981,7 @@
         <v>672</v>
       </c>
       <c r="B189" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -4985,7 +4989,7 @@
         <v>672</v>
       </c>
       <c r="B190" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -4993,7 +4997,7 @@
         <v>672</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5001,7 +5005,7 @@
         <v>672</v>
       </c>
       <c r="B192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5009,7 +5013,7 @@
         <v>672</v>
       </c>
       <c r="B193" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5017,7 +5021,7 @@
         <v>672</v>
       </c>
       <c r="B194" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5025,7 +5029,7 @@
         <v>672</v>
       </c>
       <c r="B195" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5033,7 +5037,7 @@
         <v>672</v>
       </c>
       <c r="B196" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5041,7 +5045,7 @@
         <v>672</v>
       </c>
       <c r="B197" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5049,7 +5053,7 @@
         <v>672</v>
       </c>
       <c r="B198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5057,7 +5061,7 @@
         <v>672</v>
       </c>
       <c r="B199" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5065,7 +5069,7 @@
         <v>672</v>
       </c>
       <c r="B200" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5073,7 +5077,7 @@
         <v>672</v>
       </c>
       <c r="B201" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5081,7 +5085,7 @@
         <v>672</v>
       </c>
       <c r="B202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5089,7 +5093,7 @@
         <v>672</v>
       </c>
       <c r="B203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5097,7 +5101,7 @@
         <v>672</v>
       </c>
       <c r="B204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5105,7 +5109,7 @@
         <v>672</v>
       </c>
       <c r="B205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5113,7 +5117,7 @@
         <v>672</v>
       </c>
       <c r="B206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5121,7 +5125,7 @@
         <v>672</v>
       </c>
       <c r="B207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5129,7 +5133,7 @@
         <v>672</v>
       </c>
       <c r="B208" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5137,7 +5141,7 @@
         <v>672</v>
       </c>
       <c r="B209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5145,7 +5149,7 @@
         <v>672</v>
       </c>
       <c r="B210" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5153,7 +5157,7 @@
         <v>672</v>
       </c>
       <c r="B211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5161,7 +5165,7 @@
         <v>672</v>
       </c>
       <c r="B212" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5169,7 +5173,7 @@
         <v>672</v>
       </c>
       <c r="B213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5177,7 +5181,7 @@
         <v>672</v>
       </c>
       <c r="B214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5185,7 +5189,7 @@
         <v>672</v>
       </c>
       <c r="B215" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5193,7 +5197,7 @@
         <v>672</v>
       </c>
       <c r="B216" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5201,7 +5205,7 @@
         <v>672</v>
       </c>
       <c r="B217" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5209,7 +5213,7 @@
         <v>672</v>
       </c>
       <c r="B218" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5217,7 +5221,7 @@
         <v>672</v>
       </c>
       <c r="B219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5225,7 +5229,7 @@
         <v>672</v>
       </c>
       <c r="B220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5233,7 +5237,7 @@
         <v>672</v>
       </c>
       <c r="B221" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5241,7 +5245,7 @@
         <v>672</v>
       </c>
       <c r="B222" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5249,7 +5253,7 @@
         <v>672</v>
       </c>
       <c r="B223" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5257,7 +5261,7 @@
         <v>672</v>
       </c>
       <c r="B224" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5265,7 +5269,7 @@
         <v>672</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5273,7 +5277,7 @@
         <v>672</v>
       </c>
       <c r="B226" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5281,7 +5285,7 @@
         <v>672</v>
       </c>
       <c r="B227" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5289,7 +5293,7 @@
         <v>672</v>
       </c>
       <c r="B228" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5297,7 +5301,7 @@
         <v>672</v>
       </c>
       <c r="B229" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5305,7 +5309,7 @@
         <v>672</v>
       </c>
       <c r="B230" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5313,7 +5317,7 @@
         <v>672</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5321,7 +5325,7 @@
         <v>672</v>
       </c>
       <c r="B232" t="s">
-        <v>673</v>
+        <v>342</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5329,7 +5333,7 @@
         <v>672</v>
       </c>
       <c r="B233" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5337,7 +5341,7 @@
         <v>672</v>
       </c>
       <c r="B234" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5345,7 +5349,7 @@
         <v>672</v>
       </c>
       <c r="B235" t="s">
-        <v>675</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5353,7 +5357,7 @@
         <v>672</v>
       </c>
       <c r="B236" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5361,7 +5365,7 @@
         <v>672</v>
       </c>
       <c r="B237" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5369,7 +5373,7 @@
         <v>672</v>
       </c>
       <c r="B238" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5377,7 +5381,7 @@
         <v>672</v>
       </c>
       <c r="B239" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5385,7 +5389,7 @@
         <v>672</v>
       </c>
       <c r="B240" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5393,7 +5397,7 @@
         <v>672</v>
       </c>
       <c r="B241" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5401,7 +5405,7 @@
         <v>672</v>
       </c>
       <c r="B242" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5409,7 +5413,7 @@
         <v>672</v>
       </c>
       <c r="B243" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5417,7 +5421,7 @@
         <v>672</v>
       </c>
       <c r="B244" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5425,7 +5429,7 @@
         <v>672</v>
       </c>
       <c r="B245" t="s">
-        <v>60</v>
+        <v>684</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5433,7 +5437,7 @@
         <v>672</v>
       </c>
       <c r="B246" t="s">
-        <v>685</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5441,7 +5445,7 @@
         <v>672</v>
       </c>
       <c r="B247" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5449,15 +5453,15 @@
         <v>672</v>
       </c>
       <c r="B248" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>402</v>
+        <v>672</v>
       </c>
       <c r="B249" t="s">
-        <v>403</v>
+        <v>687</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5465,7 +5469,7 @@
         <v>402</v>
       </c>
       <c r="B250" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5473,15 +5477,15 @@
         <v>402</v>
       </c>
       <c r="B251" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5489,7 +5493,7 @@
         <v>167</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5497,7 +5501,7 @@
         <v>167</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5505,7 +5509,7 @@
         <v>167</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5513,7 +5517,7 @@
         <v>167</v>
       </c>
       <c r="B256" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5521,7 +5525,7 @@
         <v>167</v>
       </c>
       <c r="B257" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5529,7 +5533,7 @@
         <v>167</v>
       </c>
       <c r="B258" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5537,7 +5541,7 @@
         <v>167</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5545,7 +5549,7 @@
         <v>167</v>
       </c>
       <c r="B260" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5553,7 +5557,7 @@
         <v>167</v>
       </c>
       <c r="B261" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -5561,7 +5565,7 @@
         <v>167</v>
       </c>
       <c r="B262" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -5569,7 +5573,7 @@
         <v>167</v>
       </c>
       <c r="B263" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -5577,7 +5581,7 @@
         <v>167</v>
       </c>
       <c r="B264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -5585,7 +5589,7 @@
         <v>167</v>
       </c>
       <c r="B265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -5593,7 +5597,7 @@
         <v>167</v>
       </c>
       <c r="B266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -5601,7 +5605,7 @@
         <v>167</v>
       </c>
       <c r="B267" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -5609,7 +5613,7 @@
         <v>167</v>
       </c>
       <c r="B268" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -5617,7 +5621,7 @@
         <v>167</v>
       </c>
       <c r="B269" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -5625,7 +5629,7 @@
         <v>167</v>
       </c>
       <c r="B270" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +5637,7 @@
         <v>167</v>
       </c>
       <c r="B271" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -5641,7 +5645,7 @@
         <v>167</v>
       </c>
       <c r="B272" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -5649,7 +5653,7 @@
         <v>167</v>
       </c>
       <c r="B273" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -5657,7 +5661,7 @@
         <v>167</v>
       </c>
       <c r="B274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -5665,7 +5669,7 @@
         <v>167</v>
       </c>
       <c r="B275" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -5673,7 +5677,7 @@
         <v>167</v>
       </c>
       <c r="B276" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -5681,7 +5685,7 @@
         <v>167</v>
       </c>
       <c r="B277" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -5689,7 +5693,7 @@
         <v>167</v>
       </c>
       <c r="B278" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -5697,7 +5701,7 @@
         <v>167</v>
       </c>
       <c r="B279" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +5709,7 @@
         <v>167</v>
       </c>
       <c r="B280" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -5713,7 +5717,7 @@
         <v>167</v>
       </c>
       <c r="B281" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5721,7 +5725,7 @@
         <v>167</v>
       </c>
       <c r="B282" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5729,7 +5733,7 @@
         <v>167</v>
       </c>
       <c r="B283" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5737,7 +5741,7 @@
         <v>167</v>
       </c>
       <c r="B284" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5745,7 +5749,7 @@
         <v>167</v>
       </c>
       <c r="B285" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5753,7 +5757,7 @@
         <v>167</v>
       </c>
       <c r="B286" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5761,7 +5765,7 @@
         <v>167</v>
       </c>
       <c r="B287" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5769,7 +5773,7 @@
         <v>167</v>
       </c>
       <c r="B288" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5777,7 +5781,7 @@
         <v>167</v>
       </c>
       <c r="B289" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5785,7 +5789,7 @@
         <v>167</v>
       </c>
       <c r="B290" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5793,7 +5797,7 @@
         <v>167</v>
       </c>
       <c r="B291" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5801,7 +5805,7 @@
         <v>167</v>
       </c>
       <c r="B292" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5809,7 +5813,7 @@
         <v>167</v>
       </c>
       <c r="B293" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5817,7 +5821,7 @@
         <v>167</v>
       </c>
       <c r="B294" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5825,7 +5829,7 @@
         <v>167</v>
       </c>
       <c r="B295" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5833,7 +5837,7 @@
         <v>167</v>
       </c>
       <c r="B296" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5841,7 +5845,7 @@
         <v>167</v>
       </c>
       <c r="B297" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5849,7 +5853,7 @@
         <v>167</v>
       </c>
       <c r="B298" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5857,7 +5861,7 @@
         <v>167</v>
       </c>
       <c r="B299" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5865,7 +5869,7 @@
         <v>167</v>
       </c>
       <c r="B300" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -5873,7 +5877,7 @@
         <v>167</v>
       </c>
       <c r="B301" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -5881,7 +5885,7 @@
         <v>167</v>
       </c>
       <c r="B302" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5889,7 +5893,7 @@
         <v>167</v>
       </c>
       <c r="B303" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5897,7 +5901,7 @@
         <v>167</v>
       </c>
       <c r="B304" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5905,7 +5909,7 @@
         <v>167</v>
       </c>
       <c r="B305" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5913,7 +5917,7 @@
         <v>167</v>
       </c>
       <c r="B306" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -5921,7 +5925,7 @@
         <v>167</v>
       </c>
       <c r="B307" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -5929,7 +5933,7 @@
         <v>167</v>
       </c>
       <c r="B308" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -5937,7 +5941,7 @@
         <v>167</v>
       </c>
       <c r="B309" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5945,7 +5949,7 @@
         <v>167</v>
       </c>
       <c r="B310" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5953,7 +5957,7 @@
         <v>167</v>
       </c>
       <c r="B311" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5961,7 +5965,7 @@
         <v>167</v>
       </c>
       <c r="B312" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5969,7 +5973,7 @@
         <v>167</v>
       </c>
       <c r="B313" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5977,7 +5981,7 @@
         <v>167</v>
       </c>
       <c r="B314" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5985,7 +5989,7 @@
         <v>167</v>
       </c>
       <c r="B315" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5993,7 +5997,7 @@
         <v>167</v>
       </c>
       <c r="B316" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6001,7 +6005,7 @@
         <v>167</v>
       </c>
       <c r="B317" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6009,7 +6013,7 @@
         <v>167</v>
       </c>
       <c r="B318" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6017,7 +6021,7 @@
         <v>167</v>
       </c>
       <c r="B319" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6025,7 +6029,7 @@
         <v>167</v>
       </c>
       <c r="B320" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6033,7 +6037,7 @@
         <v>167</v>
       </c>
       <c r="B321" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6041,7 +6045,7 @@
         <v>167</v>
       </c>
       <c r="B322" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6049,15 +6053,15 @@
         <v>167</v>
       </c>
       <c r="B323" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B324" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +6069,7 @@
         <v>168</v>
       </c>
       <c r="B325" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6073,7 +6077,7 @@
         <v>168</v>
       </c>
       <c r="B326" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6081,7 +6085,7 @@
         <v>168</v>
       </c>
       <c r="B327" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6089,7 +6093,7 @@
         <v>168</v>
       </c>
       <c r="B328" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6097,7 +6101,7 @@
         <v>168</v>
       </c>
       <c r="B329" t="s">
-        <v>664</v>
+        <v>227</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6105,7 +6109,7 @@
         <v>168</v>
       </c>
       <c r="B330" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6117,7 @@
         <v>168</v>
       </c>
       <c r="B331" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6121,7 +6125,7 @@
         <v>168</v>
       </c>
       <c r="B332" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6129,7 +6133,7 @@
         <v>168</v>
       </c>
       <c r="B333" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +6141,7 @@
         <v>168</v>
       </c>
       <c r="B334" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6145,7 +6149,7 @@
         <v>168</v>
       </c>
       <c r="B335" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6153,15 +6157,15 @@
         <v>168</v>
       </c>
       <c r="B336" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>401</v>
+        <v>168</v>
       </c>
       <c r="B337" t="s">
-        <v>35</v>
+        <v>671</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6169,7 +6173,7 @@
         <v>401</v>
       </c>
       <c r="B338" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6177,7 +6181,7 @@
         <v>401</v>
       </c>
       <c r="B339" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6185,7 +6189,7 @@
         <v>401</v>
       </c>
       <c r="B340" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6193,7 +6197,7 @@
         <v>401</v>
       </c>
       <c r="B341" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6201,7 +6205,7 @@
         <v>401</v>
       </c>
       <c r="B342" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6209,7 +6213,7 @@
         <v>401</v>
       </c>
       <c r="B343" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6217,7 +6221,7 @@
         <v>401</v>
       </c>
       <c r="B344" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6225,7 +6229,7 @@
         <v>401</v>
       </c>
       <c r="B345" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6233,7 +6237,7 @@
         <v>401</v>
       </c>
       <c r="B346" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6241,7 +6245,7 @@
         <v>401</v>
       </c>
       <c r="B347" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6249,7 +6253,7 @@
         <v>401</v>
       </c>
       <c r="B348" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +6261,7 @@
         <v>401</v>
       </c>
       <c r="B349" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +6269,7 @@
         <v>401</v>
       </c>
       <c r="B350" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6273,7 +6277,7 @@
         <v>401</v>
       </c>
       <c r="B351" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +6285,7 @@
         <v>401</v>
       </c>
       <c r="B352" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6289,7 +6293,7 @@
         <v>401</v>
       </c>
       <c r="B353" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6297,7 +6301,7 @@
         <v>401</v>
       </c>
       <c r="B354" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,7 +6309,7 @@
         <v>401</v>
       </c>
       <c r="B355" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +6317,7 @@
         <v>401</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,7 +6325,7 @@
         <v>401</v>
       </c>
       <c r="B357" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6333,7 @@
         <v>401</v>
       </c>
       <c r="B358" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6337,7 +6341,7 @@
         <v>401</v>
       </c>
       <c r="B359" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6345,7 +6349,7 @@
         <v>401</v>
       </c>
       <c r="B360" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +6357,7 @@
         <v>401</v>
       </c>
       <c r="B361" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6361,7 +6365,7 @@
         <v>401</v>
       </c>
       <c r="B362" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6369,7 +6373,7 @@
         <v>401</v>
       </c>
       <c r="B363" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6377,7 +6381,7 @@
         <v>401</v>
       </c>
       <c r="B364" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6385,7 +6389,7 @@
         <v>401</v>
       </c>
       <c r="B365" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6393,7 +6397,7 @@
         <v>401</v>
       </c>
       <c r="B366" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6401,7 +6405,7 @@
         <v>401</v>
       </c>
       <c r="B367" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6409,7 +6413,7 @@
         <v>401</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>104</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6417,7 +6421,7 @@
         <v>401</v>
       </c>
       <c r="B369" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +6429,7 @@
         <v>401</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>151</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6433,7 +6437,7 @@
         <v>401</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6441,7 +6445,7 @@
         <v>401</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6449,7 +6453,7 @@
         <v>401</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6457,7 +6461,7 @@
         <v>401</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6465,7 +6469,7 @@
         <v>401</v>
       </c>
       <c r="B375" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -6473,7 +6477,7 @@
         <v>401</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>63</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -6481,7 +6485,7 @@
         <v>401</v>
       </c>
       <c r="B377" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -6489,7 +6493,7 @@
         <v>401</v>
       </c>
       <c r="B378" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +6501,7 @@
         <v>401</v>
       </c>
       <c r="B379" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -6505,7 +6509,7 @@
         <v>401</v>
       </c>
       <c r="B380" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -6513,7 +6517,7 @@
         <v>401</v>
       </c>
       <c r="B381" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -6521,7 +6525,7 @@
         <v>401</v>
       </c>
       <c r="B382" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -6529,7 +6533,7 @@
         <v>401</v>
       </c>
       <c r="B383" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -6537,7 +6541,7 @@
         <v>401</v>
       </c>
       <c r="B384" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -6545,7 +6549,7 @@
         <v>401</v>
       </c>
       <c r="B385" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -6553,7 +6557,7 @@
         <v>401</v>
       </c>
       <c r="B386" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -6561,7 +6565,7 @@
         <v>401</v>
       </c>
       <c r="B387" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +6573,7 @@
         <v>401</v>
       </c>
       <c r="B388" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -6577,7 +6581,7 @@
         <v>401</v>
       </c>
       <c r="B389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -6585,7 +6589,7 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -6593,7 +6597,7 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -6601,7 +6605,7 @@
         <v>401</v>
       </c>
       <c r="B392" t="s">
-        <v>62</v>
+        <v>387</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -6609,7 +6613,7 @@
         <v>401</v>
       </c>
       <c r="B393" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -6617,7 +6621,7 @@
         <v>401</v>
       </c>
       <c r="B394" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -6625,7 +6629,7 @@
         <v>401</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -6633,7 +6637,7 @@
         <v>401</v>
       </c>
       <c r="B396" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -6641,7 +6645,7 @@
         <v>401</v>
       </c>
       <c r="B397" t="s">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -6649,7 +6653,7 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -6657,7 +6661,7 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -6665,7 +6669,7 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -6673,15 +6677,15 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>740</v>
+        <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>722</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -6689,7 +6693,7 @@
         <v>740</v>
       </c>
       <c r="B403" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -6697,7 +6701,7 @@
         <v>740</v>
       </c>
       <c r="B404" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -6705,7 +6709,7 @@
         <v>740</v>
       </c>
       <c r="B405" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -6713,7 +6717,7 @@
         <v>740</v>
       </c>
       <c r="B406" t="s">
-        <v>195</v>
+        <v>725</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -6721,7 +6725,7 @@
         <v>740</v>
       </c>
       <c r="B407" t="s">
-        <v>726</v>
+        <v>195</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -6729,7 +6733,7 @@
         <v>740</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -6737,7 +6741,7 @@
         <v>740</v>
       </c>
       <c r="B409" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -6745,7 +6749,7 @@
         <v>740</v>
       </c>
       <c r="B410" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -6753,7 +6757,7 @@
         <v>740</v>
       </c>
       <c r="B411" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -6761,7 +6765,7 @@
         <v>740</v>
       </c>
       <c r="B412" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -6769,7 +6773,7 @@
         <v>740</v>
       </c>
       <c r="B413" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -6777,7 +6781,7 @@
         <v>740</v>
       </c>
       <c r="B414" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -6785,7 +6789,7 @@
         <v>740</v>
       </c>
       <c r="B415" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -6793,7 +6797,7 @@
         <v>740</v>
       </c>
       <c r="B416" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -6801,7 +6805,7 @@
         <v>740</v>
       </c>
       <c r="B417" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -6809,7 +6813,7 @@
         <v>740</v>
       </c>
       <c r="B418" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -6817,7 +6821,7 @@
         <v>740</v>
       </c>
       <c r="B419" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -6825,7 +6829,7 @@
         <v>740</v>
       </c>
       <c r="B420" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -6833,7 +6837,7 @@
         <v>740</v>
       </c>
       <c r="B421" t="s">
-        <v>214</v>
+        <v>739</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -6841,7 +6845,7 @@
         <v>740</v>
       </c>
       <c r="B422" t="s">
-        <v>741</v>
+        <v>214</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -6849,7 +6853,7 @@
         <v>740</v>
       </c>
       <c r="B423" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -6857,7 +6861,7 @@
         <v>740</v>
       </c>
       <c r="B424" t="s">
-        <v>742</v>
+        <v>216</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -6865,7 +6869,7 @@
         <v>740</v>
       </c>
       <c r="B425" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -6873,7 +6877,7 @@
         <v>740</v>
       </c>
       <c r="B426" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -6881,7 +6885,7 @@
         <v>740</v>
       </c>
       <c r="B427" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -6889,7 +6893,7 @@
         <v>740</v>
       </c>
       <c r="B428" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -6897,7 +6901,7 @@
         <v>740</v>
       </c>
       <c r="B429" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -6905,7 +6909,7 @@
         <v>740</v>
       </c>
       <c r="B430" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -6913,15 +6917,15 @@
         <v>740</v>
       </c>
       <c r="B431" t="s">
-        <v>305</v>
+        <v>748</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>169</v>
+        <v>740</v>
       </c>
       <c r="B432" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -6929,7 +6933,7 @@
         <v>169</v>
       </c>
       <c r="B433" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -6937,7 +6941,7 @@
         <v>169</v>
       </c>
       <c r="B434" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -6945,7 +6949,7 @@
         <v>169</v>
       </c>
       <c r="B435" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -6953,7 +6957,7 @@
         <v>169</v>
       </c>
       <c r="B436" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -6961,7 +6965,7 @@
         <v>169</v>
       </c>
       <c r="B437" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -6969,7 +6973,7 @@
         <v>169</v>
       </c>
       <c r="B438" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -6977,7 +6981,7 @@
         <v>169</v>
       </c>
       <c r="B439" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -6985,7 +6989,7 @@
         <v>169</v>
       </c>
       <c r="B440" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -6993,7 +6997,7 @@
         <v>169</v>
       </c>
       <c r="B441" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7001,7 +7005,7 @@
         <v>169</v>
       </c>
       <c r="B442" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7009,7 +7013,7 @@
         <v>169</v>
       </c>
       <c r="B443" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7017,7 +7021,7 @@
         <v>169</v>
       </c>
       <c r="B444" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7025,7 +7029,7 @@
         <v>169</v>
       </c>
       <c r="B445" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7033,7 +7037,7 @@
         <v>169</v>
       </c>
       <c r="B446" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7041,7 +7045,7 @@
         <v>169</v>
       </c>
       <c r="B447" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7049,7 +7053,7 @@
         <v>169</v>
       </c>
       <c r="B448" t="s">
-        <v>391</v>
+        <v>174</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7057,7 +7061,7 @@
         <v>169</v>
       </c>
       <c r="B449" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7065,7 +7069,7 @@
         <v>169</v>
       </c>
       <c r="B450" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7073,7 +7077,7 @@
         <v>169</v>
       </c>
       <c r="B451" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7081,7 +7085,7 @@
         <v>169</v>
       </c>
       <c r="B452" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7089,7 +7093,7 @@
         <v>169</v>
       </c>
       <c r="B453" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7097,7 +7101,7 @@
         <v>169</v>
       </c>
       <c r="B454" t="s">
-        <v>697</v>
+        <v>395</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7105,7 +7109,7 @@
         <v>169</v>
       </c>
       <c r="B455" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7113,7 +7117,7 @@
         <v>169</v>
       </c>
       <c r="B456" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7121,7 +7125,7 @@
         <v>169</v>
       </c>
       <c r="B457" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7129,7 +7133,7 @@
         <v>169</v>
       </c>
       <c r="B458" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7137,7 +7141,7 @@
         <v>169</v>
       </c>
       <c r="B459" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +7149,7 @@
         <v>169</v>
       </c>
       <c r="B460" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7153,7 +7157,7 @@
         <v>169</v>
       </c>
       <c r="B461" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7161,7 +7165,7 @@
         <v>169</v>
       </c>
       <c r="B462" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7169,7 +7173,7 @@
         <v>169</v>
       </c>
       <c r="B463" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7177,7 +7181,7 @@
         <v>169</v>
       </c>
       <c r="B464" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7185,7 +7189,7 @@
         <v>169</v>
       </c>
       <c r="B465" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7193,7 +7197,7 @@
         <v>169</v>
       </c>
       <c r="B466" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7201,7 +7205,7 @@
         <v>169</v>
       </c>
       <c r="B467" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7209,7 +7213,7 @@
         <v>169</v>
       </c>
       <c r="B468" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +7221,7 @@
         <v>169</v>
       </c>
       <c r="B469" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7225,7 +7229,7 @@
         <v>169</v>
       </c>
       <c r="B470" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7233,7 +7237,7 @@
         <v>169</v>
       </c>
       <c r="B471" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7241,7 +7245,7 @@
         <v>169</v>
       </c>
       <c r="B472" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7249,7 +7253,7 @@
         <v>169</v>
       </c>
       <c r="B473" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7257,7 +7261,7 @@
         <v>169</v>
       </c>
       <c r="B474" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7265,7 +7269,7 @@
         <v>169</v>
       </c>
       <c r="B475" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -7273,7 +7277,7 @@
         <v>169</v>
       </c>
       <c r="B476" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7281,7 +7285,7 @@
         <v>169</v>
       </c>
       <c r="B477" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +7293,7 @@
         <v>169</v>
       </c>
       <c r="B478" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7297,7 +7301,7 @@
         <v>169</v>
       </c>
       <c r="B479" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7305,7 +7309,7 @@
         <v>169</v>
       </c>
       <c r="B480" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7313,7 +7317,7 @@
         <v>169</v>
       </c>
       <c r="B481" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -7321,7 +7325,7 @@
         <v>169</v>
       </c>
       <c r="B482" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -7329,7 +7333,7 @@
         <v>169</v>
       </c>
       <c r="B483" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -7337,7 +7341,7 @@
         <v>169</v>
       </c>
       <c r="B484" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -7345,15 +7349,15 @@
         <v>169</v>
       </c>
       <c r="B485" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B486" t="s">
-        <v>16</v>
+        <v>773</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -7361,7 +7365,7 @@
         <v>170</v>
       </c>
       <c r="B487" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -7369,7 +7373,7 @@
         <v>170</v>
       </c>
       <c r="B488" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -7377,7 +7381,7 @@
         <v>170</v>
       </c>
       <c r="B489" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -7385,7 +7389,7 @@
         <v>170</v>
       </c>
       <c r="B490" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -7393,7 +7397,7 @@
         <v>170</v>
       </c>
       <c r="B491" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -7401,7 +7405,7 @@
         <v>170</v>
       </c>
       <c r="B492" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -7409,7 +7413,7 @@
         <v>170</v>
       </c>
       <c r="B493" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -7417,7 +7421,7 @@
         <v>170</v>
       </c>
       <c r="B494" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7425,7 +7429,7 @@
         <v>170</v>
       </c>
       <c r="B495" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7433,7 +7437,7 @@
         <v>170</v>
       </c>
       <c r="B496" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -7441,7 +7445,7 @@
         <v>170</v>
       </c>
       <c r="B497" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -7449,7 +7453,7 @@
         <v>170</v>
       </c>
       <c r="B498" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7457,7 +7461,7 @@
         <v>170</v>
       </c>
       <c r="B499" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7465,7 +7469,7 @@
         <v>170</v>
       </c>
       <c r="B500" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -7473,7 +7477,7 @@
         <v>170</v>
       </c>
       <c r="B501" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -7481,7 +7485,7 @@
         <v>170</v>
       </c>
       <c r="B502" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -7489,7 +7493,7 @@
         <v>170</v>
       </c>
       <c r="B503" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7497,7 +7501,7 @@
         <v>170</v>
       </c>
       <c r="B504" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -7505,7 +7509,7 @@
         <v>170</v>
       </c>
       <c r="B505" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -7513,7 +7517,7 @@
         <v>170</v>
       </c>
       <c r="B506" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -7521,7 +7525,7 @@
         <v>170</v>
       </c>
       <c r="B507" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -7529,7 +7533,7 @@
         <v>170</v>
       </c>
       <c r="B508" t="s">
-        <v>579</v>
+        <v>124</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -7537,7 +7541,7 @@
         <v>170</v>
       </c>
       <c r="B509" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -7545,7 +7549,7 @@
         <v>170</v>
       </c>
       <c r="B510" t="s">
-        <v>580</v>
+        <v>411</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -7553,7 +7557,7 @@
         <v>170</v>
       </c>
       <c r="B511" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -7561,7 +7565,7 @@
         <v>170</v>
       </c>
       <c r="B512" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -7569,7 +7573,7 @@
         <v>170</v>
       </c>
       <c r="B513" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -7577,7 +7581,7 @@
         <v>170</v>
       </c>
       <c r="B514" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -7585,7 +7589,7 @@
         <v>170</v>
       </c>
       <c r="B515" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -7593,7 +7597,7 @@
         <v>170</v>
       </c>
       <c r="B516" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -7601,7 +7605,7 @@
         <v>170</v>
       </c>
       <c r="B517" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -7609,7 +7613,7 @@
         <v>170</v>
       </c>
       <c r="B518" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -7617,7 +7621,7 @@
         <v>170</v>
       </c>
       <c r="B519" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -7625,7 +7629,7 @@
         <v>170</v>
       </c>
       <c r="B520" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -7633,7 +7637,7 @@
         <v>170</v>
       </c>
       <c r="B521" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -7641,7 +7645,7 @@
         <v>170</v>
       </c>
       <c r="B522" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -7649,7 +7653,7 @@
         <v>170</v>
       </c>
       <c r="B523" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -7657,7 +7661,7 @@
         <v>170</v>
       </c>
       <c r="B524" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -7665,7 +7669,7 @@
         <v>170</v>
       </c>
       <c r="B525" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -7673,7 +7677,7 @@
         <v>170</v>
       </c>
       <c r="B526" t="s">
-        <v>469</v>
+        <v>594</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -7681,7 +7685,7 @@
         <v>170</v>
       </c>
       <c r="B527" t="s">
-        <v>595</v>
+        <v>469</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -7689,7 +7693,7 @@
         <v>170</v>
       </c>
       <c r="B528" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -7697,7 +7701,7 @@
         <v>170</v>
       </c>
       <c r="B529" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -7705,7 +7709,7 @@
         <v>170</v>
       </c>
       <c r="B530" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -7713,7 +7717,7 @@
         <v>170</v>
       </c>
       <c r="B531" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -7721,7 +7725,7 @@
         <v>170</v>
       </c>
       <c r="B532" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -7729,7 +7733,7 @@
         <v>170</v>
       </c>
       <c r="B533" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -7737,7 +7741,7 @@
         <v>170</v>
       </c>
       <c r="B534" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -7745,7 +7749,7 @@
         <v>170</v>
       </c>
       <c r="B535" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -7753,7 +7757,7 @@
         <v>170</v>
       </c>
       <c r="B536" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -7761,7 +7765,7 @@
         <v>170</v>
       </c>
       <c r="B537" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -7769,7 +7773,7 @@
         <v>170</v>
       </c>
       <c r="B538" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -7777,7 +7781,7 @@
         <v>170</v>
       </c>
       <c r="B539" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -7785,7 +7789,7 @@
         <v>170</v>
       </c>
       <c r="B540" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -7793,7 +7797,7 @@
         <v>170</v>
       </c>
       <c r="B541" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -7801,7 +7805,7 @@
         <v>170</v>
       </c>
       <c r="B542" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -7809,7 +7813,7 @@
         <v>170</v>
       </c>
       <c r="B543" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -7817,15 +7821,15 @@
         <v>170</v>
       </c>
       <c r="B544" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>494</v>
+        <v>170</v>
       </c>
       <c r="B545" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -7833,7 +7837,7 @@
         <v>494</v>
       </c>
       <c r="B546" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -7841,7 +7845,7 @@
         <v>494</v>
       </c>
       <c r="B547" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -7849,7 +7853,7 @@
         <v>494</v>
       </c>
       <c r="B548" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -7857,7 +7861,7 @@
         <v>494</v>
       </c>
       <c r="B549" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -7865,7 +7869,7 @@
         <v>494</v>
       </c>
       <c r="B550" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -7873,7 +7877,7 @@
         <v>494</v>
       </c>
       <c r="B551" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -7881,7 +7885,7 @@
         <v>494</v>
       </c>
       <c r="B552" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -7889,7 +7893,7 @@
         <v>494</v>
       </c>
       <c r="B553" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -7897,7 +7901,7 @@
         <v>494</v>
       </c>
       <c r="B554" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -7905,15 +7909,15 @@
         <v>494</v>
       </c>
       <c r="B555" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>171</v>
+        <v>494</v>
       </c>
       <c r="B556" t="s">
-        <v>76</v>
+        <v>504</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -7921,7 +7925,7 @@
         <v>171</v>
       </c>
       <c r="B557" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -7929,7 +7933,7 @@
         <v>171</v>
       </c>
       <c r="B558" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -7937,7 +7941,7 @@
         <v>171</v>
       </c>
       <c r="B559" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -7945,7 +7949,7 @@
         <v>171</v>
       </c>
       <c r="B560" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -7953,7 +7957,7 @@
         <v>171</v>
       </c>
       <c r="B561" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -7961,7 +7965,7 @@
         <v>171</v>
       </c>
       <c r="B562" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -7969,7 +7973,7 @@
         <v>171</v>
       </c>
       <c r="B563" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -7977,7 +7981,7 @@
         <v>171</v>
       </c>
       <c r="B564" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -7985,7 +7989,7 @@
         <v>171</v>
       </c>
       <c r="B565" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -7993,7 +7997,7 @@
         <v>171</v>
       </c>
       <c r="B566" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -8001,7 +8005,7 @@
         <v>171</v>
       </c>
       <c r="B567" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -8009,7 +8013,7 @@
         <v>171</v>
       </c>
       <c r="B568" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -8017,7 +8021,7 @@
         <v>171</v>
       </c>
       <c r="B569" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -8025,7 +8029,7 @@
         <v>171</v>
       </c>
       <c r="B570" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -8033,7 +8037,7 @@
         <v>171</v>
       </c>
       <c r="B571" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -8041,7 +8045,7 @@
         <v>171</v>
       </c>
       <c r="B572" t="s">
-        <v>505</v>
+        <v>32</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -8049,7 +8053,7 @@
         <v>171</v>
       </c>
       <c r="B573" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -8057,7 +8061,7 @@
         <v>171</v>
       </c>
       <c r="B574" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -8065,7 +8069,7 @@
         <v>171</v>
       </c>
       <c r="B575" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -8073,7 +8077,7 @@
         <v>171</v>
       </c>
       <c r="B576" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -8081,7 +8085,7 @@
         <v>171</v>
       </c>
       <c r="B577" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -8089,7 +8093,7 @@
         <v>171</v>
       </c>
       <c r="B578" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -8097,7 +8101,7 @@
         <v>171</v>
       </c>
       <c r="B579" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -8105,7 +8109,7 @@
         <v>171</v>
       </c>
       <c r="B580" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -8113,7 +8117,7 @@
         <v>171</v>
       </c>
       <c r="B581" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -8121,7 +8125,7 @@
         <v>171</v>
       </c>
       <c r="B582" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -8129,7 +8133,7 @@
         <v>171</v>
       </c>
       <c r="B583" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -8137,7 +8141,7 @@
         <v>171</v>
       </c>
       <c r="B584" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -8145,7 +8149,7 @@
         <v>171</v>
       </c>
       <c r="B585" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -8153,7 +8157,7 @@
         <v>171</v>
       </c>
       <c r="B586" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -8161,7 +8165,7 @@
         <v>171</v>
       </c>
       <c r="B587" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -8169,7 +8173,7 @@
         <v>171</v>
       </c>
       <c r="B588" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -8177,7 +8181,7 @@
         <v>171</v>
       </c>
       <c r="B589" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -8185,7 +8189,7 @@
         <v>171</v>
       </c>
       <c r="B590" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -8193,7 +8197,7 @@
         <v>171</v>
       </c>
       <c r="B591" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -8201,7 +8205,7 @@
         <v>171</v>
       </c>
       <c r="B592" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -8209,7 +8213,7 @@
         <v>171</v>
       </c>
       <c r="B593" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -8217,7 +8221,7 @@
         <v>171</v>
       </c>
       <c r="B594" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -8225,7 +8229,7 @@
         <v>171</v>
       </c>
       <c r="B595" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -8233,7 +8237,7 @@
         <v>171</v>
       </c>
       <c r="B596" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -8241,7 +8245,7 @@
         <v>171</v>
       </c>
       <c r="B597" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -8249,7 +8253,7 @@
         <v>171</v>
       </c>
       <c r="B598" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -8257,7 +8261,7 @@
         <v>171</v>
       </c>
       <c r="B599" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -8265,7 +8269,7 @@
         <v>171</v>
       </c>
       <c r="B600" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -8273,7 +8277,7 @@
         <v>171</v>
       </c>
       <c r="B601" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -8281,7 +8285,7 @@
         <v>171</v>
       </c>
       <c r="B602" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -8289,7 +8293,7 @@
         <v>171</v>
       </c>
       <c r="B603" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -8297,7 +8301,7 @@
         <v>171</v>
       </c>
       <c r="B604" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -8305,7 +8309,7 @@
         <v>171</v>
       </c>
       <c r="B605" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -8313,7 +8317,7 @@
         <v>171</v>
       </c>
       <c r="B606" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -8321,7 +8325,7 @@
         <v>171</v>
       </c>
       <c r="B607" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -8329,7 +8333,7 @@
         <v>171</v>
       </c>
       <c r="B608" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -8337,7 +8341,7 @@
         <v>171</v>
       </c>
       <c r="B609" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -8345,7 +8349,7 @@
         <v>171</v>
       </c>
       <c r="B610" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -8353,7 +8357,7 @@
         <v>171</v>
       </c>
       <c r="B611" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -8361,7 +8365,7 @@
         <v>171</v>
       </c>
       <c r="B612" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -8369,7 +8373,7 @@
         <v>171</v>
       </c>
       <c r="B613" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -8377,7 +8381,7 @@
         <v>171</v>
       </c>
       <c r="B614" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -8385,7 +8389,7 @@
         <v>171</v>
       </c>
       <c r="B615" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -8393,7 +8397,7 @@
         <v>171</v>
       </c>
       <c r="B616" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -8401,7 +8405,7 @@
         <v>171</v>
       </c>
       <c r="B617" t="s">
-        <v>196</v>
+        <v>549</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -8409,7 +8413,7 @@
         <v>171</v>
       </c>
       <c r="B618" t="s">
-        <v>550</v>
+        <v>196</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -8417,7 +8421,7 @@
         <v>171</v>
       </c>
       <c r="B619" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -8425,7 +8429,7 @@
         <v>171</v>
       </c>
       <c r="B620" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -8433,7 +8437,7 @@
         <v>171</v>
       </c>
       <c r="B621" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -8441,7 +8445,7 @@
         <v>171</v>
       </c>
       <c r="B622" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -8449,7 +8453,7 @@
         <v>171</v>
       </c>
       <c r="B623" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -8457,7 +8461,7 @@
         <v>171</v>
       </c>
       <c r="B624" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -8465,7 +8469,7 @@
         <v>171</v>
       </c>
       <c r="B625" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -8473,7 +8477,7 @@
         <v>171</v>
       </c>
       <c r="B626" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -8481,7 +8485,7 @@
         <v>171</v>
       </c>
       <c r="B627" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -8489,7 +8493,7 @@
         <v>171</v>
       </c>
       <c r="B628" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -8497,7 +8501,7 @@
         <v>171</v>
       </c>
       <c r="B629" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -8505,7 +8509,7 @@
         <v>171</v>
       </c>
       <c r="B630" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -8513,7 +8517,7 @@
         <v>171</v>
       </c>
       <c r="B631" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -8521,7 +8525,7 @@
         <v>171</v>
       </c>
       <c r="B632" t="s">
-        <v>563</v>
+        <v>90</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -8529,7 +8533,7 @@
         <v>171</v>
       </c>
       <c r="B633" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -8537,7 +8541,7 @@
         <v>171</v>
       </c>
       <c r="B634" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -8545,7 +8549,7 @@
         <v>171</v>
       </c>
       <c r="B635" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -8553,7 +8557,7 @@
         <v>171</v>
       </c>
       <c r="B636" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
@@ -8561,7 +8565,7 @@
         <v>171</v>
       </c>
       <c r="B637" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
@@ -8569,7 +8573,7 @@
         <v>171</v>
       </c>
       <c r="B638" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -8577,7 +8581,7 @@
         <v>171</v>
       </c>
       <c r="B639" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
@@ -8585,7 +8589,7 @@
         <v>171</v>
       </c>
       <c r="B640" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -8593,7 +8597,7 @@
         <v>171</v>
       </c>
       <c r="B641" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -8601,7 +8605,7 @@
         <v>171</v>
       </c>
       <c r="B642" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -8609,7 +8613,7 @@
         <v>171</v>
       </c>
       <c r="B643" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -8617,7 +8621,7 @@
         <v>171</v>
       </c>
       <c r="B644" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -8625,7 +8629,7 @@
         <v>171</v>
       </c>
       <c r="B645" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -8633,7 +8637,7 @@
         <v>171</v>
       </c>
       <c r="B646" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -8641,7 +8645,7 @@
         <v>171</v>
       </c>
       <c r="B647" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -8649,15 +8653,15 @@
         <v>171</v>
       </c>
       <c r="B648" t="s">
-        <v>196</v>
+        <v>578</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
       <c r="B649" t="s">
-        <v>406</v>
+        <v>196</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -8665,7 +8669,7 @@
         <v>409</v>
       </c>
       <c r="B650" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -8673,7 +8677,7 @@
         <v>409</v>
       </c>
       <c r="B651" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -8681,7 +8685,7 @@
         <v>409</v>
       </c>
       <c r="B652" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -8689,7 +8693,7 @@
         <v>409</v>
       </c>
       <c r="B653" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -8697,7 +8701,7 @@
         <v>409</v>
       </c>
       <c r="B654" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
@@ -8705,7 +8709,7 @@
         <v>409</v>
       </c>
       <c r="B655" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
@@ -8713,7 +8717,7 @@
         <v>409</v>
       </c>
       <c r="B656" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -8721,7 +8725,7 @@
         <v>409</v>
       </c>
       <c r="B657" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -8729,7 +8733,7 @@
         <v>409</v>
       </c>
       <c r="B658" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -8737,7 +8741,7 @@
         <v>409</v>
       </c>
       <c r="B659" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
@@ -8745,7 +8749,7 @@
         <v>409</v>
       </c>
       <c r="B660" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -8753,7 +8757,7 @@
         <v>409</v>
       </c>
       <c r="B661" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -8761,7 +8765,7 @@
         <v>409</v>
       </c>
       <c r="B662" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -8769,7 +8773,7 @@
         <v>409</v>
       </c>
       <c r="B663" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
@@ -8777,7 +8781,7 @@
         <v>409</v>
       </c>
       <c r="B664" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
@@ -8785,7 +8789,7 @@
         <v>409</v>
       </c>
       <c r="B665" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
@@ -8793,7 +8797,7 @@
         <v>409</v>
       </c>
       <c r="B666" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -8801,7 +8805,7 @@
         <v>409</v>
       </c>
       <c r="B667" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -8809,7 +8813,7 @@
         <v>409</v>
       </c>
       <c r="B668" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -8817,7 +8821,7 @@
         <v>409</v>
       </c>
       <c r="B669" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -8825,7 +8829,7 @@
         <v>409</v>
       </c>
       <c r="B670" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -8833,7 +8837,7 @@
         <v>409</v>
       </c>
       <c r="B671" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
@@ -8841,7 +8845,7 @@
         <v>409</v>
       </c>
       <c r="B672" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -8849,7 +8853,7 @@
         <v>409</v>
       </c>
       <c r="B673" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -8857,7 +8861,7 @@
         <v>409</v>
       </c>
       <c r="B674" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -8865,7 +8869,7 @@
         <v>409</v>
       </c>
       <c r="B675" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
@@ -8873,7 +8877,7 @@
         <v>409</v>
       </c>
       <c r="B676" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
@@ -8881,7 +8885,7 @@
         <v>409</v>
       </c>
       <c r="B677" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -8889,7 +8893,7 @@
         <v>409</v>
       </c>
       <c r="B678" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
@@ -8897,7 +8901,7 @@
         <v>409</v>
       </c>
       <c r="B679" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -8905,7 +8909,7 @@
         <v>409</v>
       </c>
       <c r="B680" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -8913,7 +8917,7 @@
         <v>409</v>
       </c>
       <c r="B681" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -8921,7 +8925,7 @@
         <v>409</v>
       </c>
       <c r="B682" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -8929,7 +8933,7 @@
         <v>409</v>
       </c>
       <c r="B683" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -8937,7 +8941,7 @@
         <v>409</v>
       </c>
       <c r="B684" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
@@ -8945,7 +8949,7 @@
         <v>409</v>
       </c>
       <c r="B685" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -8953,7 +8957,7 @@
         <v>409</v>
       </c>
       <c r="B686" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
@@ -8961,7 +8965,7 @@
         <v>409</v>
       </c>
       <c r="B687" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
@@ -8969,7 +8973,7 @@
         <v>409</v>
       </c>
       <c r="B688" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
@@ -8977,7 +8981,7 @@
         <v>409</v>
       </c>
       <c r="B689" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
@@ -8985,7 +8989,7 @@
         <v>409</v>
       </c>
       <c r="B690" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
@@ -8993,7 +8997,7 @@
         <v>409</v>
       </c>
       <c r="B691" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
@@ -9001,7 +9005,7 @@
         <v>409</v>
       </c>
       <c r="B692" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -9009,7 +9013,7 @@
         <v>409</v>
       </c>
       <c r="B693" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -9017,7 +9021,7 @@
         <v>409</v>
       </c>
       <c r="B694" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -9025,7 +9029,7 @@
         <v>409</v>
       </c>
       <c r="B695" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -9033,7 +9037,7 @@
         <v>409</v>
       </c>
       <c r="B696" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -9041,7 +9045,7 @@
         <v>409</v>
       </c>
       <c r="B697" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
@@ -9049,7 +9053,7 @@
         <v>409</v>
       </c>
       <c r="B698" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
@@ -9057,7 +9061,7 @@
         <v>409</v>
       </c>
       <c r="B699" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
@@ -9065,7 +9069,7 @@
         <v>409</v>
       </c>
       <c r="B700" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
@@ -9073,7 +9077,7 @@
         <v>409</v>
       </c>
       <c r="B701" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -9081,7 +9085,7 @@
         <v>409</v>
       </c>
       <c r="B702" t="s">
-        <v>459</v>
+        <v>100</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -9089,7 +9093,7 @@
         <v>409</v>
       </c>
       <c r="B703" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -9097,7 +9101,7 @@
         <v>409</v>
       </c>
       <c r="B704" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -9105,7 +9109,7 @@
         <v>409</v>
       </c>
       <c r="B705" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -9113,7 +9117,7 @@
         <v>409</v>
       </c>
       <c r="B706" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
@@ -9121,7 +9125,7 @@
         <v>409</v>
       </c>
       <c r="B707" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -9129,7 +9133,7 @@
         <v>409</v>
       </c>
       <c r="B708" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -9137,7 +9141,7 @@
         <v>409</v>
       </c>
       <c r="B709" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -9145,7 +9149,7 @@
         <v>409</v>
       </c>
       <c r="B710" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -9153,7 +9157,7 @@
         <v>409</v>
       </c>
       <c r="B711" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -9161,7 +9165,7 @@
         <v>409</v>
       </c>
       <c r="B712" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
@@ -9169,7 +9173,7 @@
         <v>409</v>
       </c>
       <c r="B713" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -9177,7 +9181,7 @@
         <v>409</v>
       </c>
       <c r="B714" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
@@ -9185,7 +9189,7 @@
         <v>409</v>
       </c>
       <c r="B715" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
@@ -9193,7 +9197,7 @@
         <v>409</v>
       </c>
       <c r="B716" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
@@ -9201,7 +9205,7 @@
         <v>409</v>
       </c>
       <c r="B717" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
@@ -9209,7 +9213,7 @@
         <v>409</v>
       </c>
       <c r="B718" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
@@ -9217,7 +9221,7 @@
         <v>409</v>
       </c>
       <c r="B719" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
@@ -9225,7 +9229,7 @@
         <v>409</v>
       </c>
       <c r="B720" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -9233,7 +9237,7 @@
         <v>409</v>
       </c>
       <c r="B721" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
@@ -9241,7 +9245,7 @@
         <v>409</v>
       </c>
       <c r="B722" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
@@ -9249,7 +9253,7 @@
         <v>409</v>
       </c>
       <c r="B723" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -9257,7 +9261,7 @@
         <v>409</v>
       </c>
       <c r="B724" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -9265,7 +9269,7 @@
         <v>409</v>
       </c>
       <c r="B725" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -9273,7 +9277,7 @@
         <v>409</v>
       </c>
       <c r="B726" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -9281,7 +9285,7 @@
         <v>409</v>
       </c>
       <c r="B727" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -9289,7 +9293,7 @@
         <v>409</v>
       </c>
       <c r="B728" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
@@ -9297,7 +9301,7 @@
         <v>409</v>
       </c>
       <c r="B729" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
@@ -9305,7 +9309,7 @@
         <v>409</v>
       </c>
       <c r="B730" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
@@ -9313,7 +9317,7 @@
         <v>409</v>
       </c>
       <c r="B731" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
@@ -9321,7 +9325,7 @@
         <v>409</v>
       </c>
       <c r="B732" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -9329,7 +9333,7 @@
         <v>409</v>
       </c>
       <c r="B733" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -9337,7 +9341,7 @@
         <v>409</v>
       </c>
       <c r="B734" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -9345,15 +9349,15 @@
         <v>409</v>
       </c>
       <c r="B735" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>613</v>
+        <v>409</v>
       </c>
       <c r="B736" t="s">
-        <v>614</v>
+        <v>492</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -9361,7 +9365,7 @@
         <v>613</v>
       </c>
       <c r="B737" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
@@ -9369,7 +9373,7 @@
         <v>613</v>
       </c>
       <c r="B738" t="s">
-        <v>440</v>
+        <v>615</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
@@ -9377,7 +9381,7 @@
         <v>613</v>
       </c>
       <c r="B739" t="s">
-        <v>617</v>
+        <v>440</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
@@ -9385,7 +9389,7 @@
         <v>613</v>
       </c>
       <c r="B740" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
@@ -9393,7 +9397,7 @@
         <v>613</v>
       </c>
       <c r="B741" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
@@ -9401,7 +9405,7 @@
         <v>613</v>
       </c>
       <c r="B742" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
@@ -9409,7 +9413,7 @@
         <v>613</v>
       </c>
       <c r="B743" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
@@ -9417,7 +9421,7 @@
         <v>613</v>
       </c>
       <c r="B744" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
@@ -9425,7 +9429,7 @@
         <v>613</v>
       </c>
       <c r="B745" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
@@ -9433,7 +9437,7 @@
         <v>613</v>
       </c>
       <c r="B746" t="s">
-        <v>419</v>
+        <v>622</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
@@ -9441,7 +9445,7 @@
         <v>613</v>
       </c>
       <c r="B747" t="s">
-        <v>623</v>
+        <v>419</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
@@ -9449,7 +9453,7 @@
         <v>613</v>
       </c>
       <c r="B748" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
@@ -9457,7 +9461,7 @@
         <v>613</v>
       </c>
       <c r="B749" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
@@ -9465,7 +9469,7 @@
         <v>613</v>
       </c>
       <c r="B750" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
@@ -9473,7 +9477,7 @@
         <v>613</v>
       </c>
       <c r="B751" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
@@ -9481,7 +9485,7 @@
         <v>613</v>
       </c>
       <c r="B752" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
@@ -9489,7 +9493,7 @@
         <v>613</v>
       </c>
       <c r="B753" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
@@ -9497,7 +9501,7 @@
         <v>613</v>
       </c>
       <c r="B754" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
@@ -9505,7 +9509,7 @@
         <v>613</v>
       </c>
       <c r="B755" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
@@ -9513,7 +9517,7 @@
         <v>613</v>
       </c>
       <c r="B756" t="s">
-        <v>536</v>
+        <v>631</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
@@ -9521,7 +9525,7 @@
         <v>613</v>
       </c>
       <c r="B757" t="s">
-        <v>632</v>
+        <v>536</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
@@ -9529,7 +9533,7 @@
         <v>613</v>
       </c>
       <c r="B758" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
@@ -9537,7 +9541,7 @@
         <v>613</v>
       </c>
       <c r="B759" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
@@ -9545,7 +9549,7 @@
         <v>613</v>
       </c>
       <c r="B760" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
@@ -9553,7 +9557,7 @@
         <v>613</v>
       </c>
       <c r="B761" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
@@ -9561,7 +9565,7 @@
         <v>613</v>
       </c>
       <c r="B762" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
@@ -9569,7 +9573,7 @@
         <v>613</v>
       </c>
       <c r="B763" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -9577,7 +9581,7 @@
         <v>613</v>
       </c>
       <c r="B764" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
@@ -9585,7 +9589,7 @@
         <v>613</v>
       </c>
       <c r="B765" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
@@ -9593,7 +9597,7 @@
         <v>613</v>
       </c>
       <c r="B766" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
@@ -9601,7 +9605,7 @@
         <v>613</v>
       </c>
       <c r="B767" t="s">
-        <v>451</v>
+        <v>641</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -9609,7 +9613,7 @@
         <v>613</v>
       </c>
       <c r="B768" t="s">
-        <v>642</v>
+        <v>451</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -9617,7 +9621,7 @@
         <v>613</v>
       </c>
       <c r="B769" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
@@ -9625,7 +9629,7 @@
         <v>613</v>
       </c>
       <c r="B770" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
@@ -9633,7 +9637,7 @@
         <v>613</v>
       </c>
       <c r="B771" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
@@ -9641,7 +9645,7 @@
         <v>613</v>
       </c>
       <c r="B772" t="s">
-        <v>491</v>
+        <v>645</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
@@ -9649,7 +9653,7 @@
         <v>613</v>
       </c>
       <c r="B773" t="s">
-        <v>646</v>
+        <v>491</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
@@ -9657,7 +9661,7 @@
         <v>613</v>
       </c>
       <c r="B774" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
@@ -9665,7 +9669,7 @@
         <v>613</v>
       </c>
       <c r="B775" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -9673,7 +9677,7 @@
         <v>613</v>
       </c>
       <c r="B776" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -9681,7 +9685,7 @@
         <v>613</v>
       </c>
       <c r="B777" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
@@ -9689,7 +9693,7 @@
         <v>613</v>
       </c>
       <c r="B778" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -9697,7 +9701,7 @@
         <v>613</v>
       </c>
       <c r="B779" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -9705,7 +9709,7 @@
         <v>613</v>
       </c>
       <c r="B780" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
@@ -9713,7 +9717,7 @@
         <v>613</v>
       </c>
       <c r="B781" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -9721,7 +9725,7 @@
         <v>613</v>
       </c>
       <c r="B782" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -9729,7 +9733,7 @@
         <v>613</v>
       </c>
       <c r="B783" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
@@ -9737,7 +9741,7 @@
         <v>613</v>
       </c>
       <c r="B784" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -9745,7 +9749,7 @@
         <v>613</v>
       </c>
       <c r="B785" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
@@ -9753,7 +9757,7 @@
         <v>613</v>
       </c>
       <c r="B786" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
@@ -9761,7 +9765,7 @@
         <v>613</v>
       </c>
       <c r="B787" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
@@ -9769,7 +9773,7 @@
         <v>613</v>
       </c>
       <c r="B788" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -9777,7 +9781,7 @@
         <v>613</v>
       </c>
       <c r="B789" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -9785,15 +9789,15 @@
         <v>613</v>
       </c>
       <c r="B790" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>774</v>
+        <v>613</v>
       </c>
       <c r="B791" t="s">
-        <v>778</v>
+        <v>663</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
@@ -9801,7 +9805,7 @@
         <v>774</v>
       </c>
       <c r="B792" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
@@ -9809,7 +9813,7 @@
         <v>774</v>
       </c>
       <c r="B793" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
@@ -9817,7 +9821,7 @@
         <v>774</v>
       </c>
       <c r="B794" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
@@ -9825,7 +9829,7 @@
         <v>774</v>
       </c>
       <c r="B795" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
@@ -9833,7 +9837,7 @@
         <v>774</v>
       </c>
       <c r="B796" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
@@ -9841,7 +9845,7 @@
         <v>774</v>
       </c>
       <c r="B797" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
@@ -9849,7 +9853,7 @@
         <v>774</v>
       </c>
       <c r="B798" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
@@ -9857,7 +9861,7 @@
         <v>774</v>
       </c>
       <c r="B799" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
@@ -9865,7 +9869,7 @@
         <v>774</v>
       </c>
       <c r="B800" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
@@ -9873,7 +9877,7 @@
         <v>774</v>
       </c>
       <c r="B801" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
@@ -9881,7 +9885,7 @@
         <v>774</v>
       </c>
       <c r="B802" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
@@ -9889,7 +9893,7 @@
         <v>774</v>
       </c>
       <c r="B803" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
@@ -9897,7 +9901,7 @@
         <v>774</v>
       </c>
       <c r="B804" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
@@ -9905,7 +9909,7 @@
         <v>774</v>
       </c>
       <c r="B805" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
@@ -9913,7 +9917,7 @@
         <v>774</v>
       </c>
       <c r="B806" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
@@ -9921,7 +9925,7 @@
         <v>774</v>
       </c>
       <c r="B807" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
@@ -9929,7 +9933,7 @@
         <v>774</v>
       </c>
       <c r="B808" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
@@ -9937,7 +9941,7 @@
         <v>774</v>
       </c>
       <c r="B809" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
@@ -9945,7 +9949,7 @@
         <v>774</v>
       </c>
       <c r="B810" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
@@ -9953,7 +9957,7 @@
         <v>774</v>
       </c>
       <c r="B811" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
@@ -9961,7 +9965,7 @@
         <v>774</v>
       </c>
       <c r="B812" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
@@ -9969,7 +9973,7 @@
         <v>774</v>
       </c>
       <c r="B813" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
@@ -9977,7 +9981,7 @@
         <v>774</v>
       </c>
       <c r="B814" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
@@ -9985,7 +9989,7 @@
         <v>774</v>
       </c>
       <c r="B815" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
@@ -9993,7 +9997,7 @@
         <v>774</v>
       </c>
       <c r="B816" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
@@ -10001,7 +10005,7 @@
         <v>774</v>
       </c>
       <c r="B817" t="s">
-        <v>428</v>
+        <v>803</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
@@ -10009,7 +10013,7 @@
         <v>774</v>
       </c>
       <c r="B818" t="s">
-        <v>804</v>
+        <v>428</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
@@ -10017,7 +10021,7 @@
         <v>774</v>
       </c>
       <c r="B819" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
@@ -10025,7 +10029,7 @@
         <v>774</v>
       </c>
       <c r="B820" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
@@ -10033,7 +10037,7 @@
         <v>774</v>
       </c>
       <c r="B821" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
@@ -10041,7 +10045,7 @@
         <v>774</v>
       </c>
       <c r="B822" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
@@ -10049,7 +10053,7 @@
         <v>774</v>
       </c>
       <c r="B823" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
@@ -10057,7 +10061,7 @@
         <v>774</v>
       </c>
       <c r="B824" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
@@ -10065,7 +10069,7 @@
         <v>774</v>
       </c>
       <c r="B825" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
@@ -10073,7 +10077,7 @@
         <v>774</v>
       </c>
       <c r="B826" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
@@ -10081,7 +10085,7 @@
         <v>774</v>
       </c>
       <c r="B827" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
@@ -10089,7 +10093,7 @@
         <v>774</v>
       </c>
       <c r="B828" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
@@ -10097,7 +10101,7 @@
         <v>774</v>
       </c>
       <c r="B829" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
@@ -10105,7 +10109,7 @@
         <v>774</v>
       </c>
       <c r="B830" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
@@ -10113,7 +10117,7 @@
         <v>774</v>
       </c>
       <c r="B831" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
@@ -10121,7 +10125,7 @@
         <v>774</v>
       </c>
       <c r="B832" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
@@ -10129,7 +10133,7 @@
         <v>774</v>
       </c>
       <c r="B833" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
@@ -10137,7 +10141,7 @@
         <v>774</v>
       </c>
       <c r="B834" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
@@ -10145,7 +10149,7 @@
         <v>774</v>
       </c>
       <c r="B835" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
@@ -10153,7 +10157,7 @@
         <v>774</v>
       </c>
       <c r="B836" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
@@ -10161,7 +10165,7 @@
         <v>774</v>
       </c>
       <c r="B837" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
@@ -10169,7 +10173,7 @@
         <v>774</v>
       </c>
       <c r="B838" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
@@ -10177,7 +10181,7 @@
         <v>774</v>
       </c>
       <c r="B839" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
@@ -10185,7 +10189,7 @@
         <v>774</v>
       </c>
       <c r="B840" t="s">
-        <v>885</v>
+        <v>825</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
@@ -10193,7 +10197,7 @@
         <v>774</v>
       </c>
       <c r="B841" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
@@ -10201,15 +10205,15 @@
         <v>774</v>
       </c>
       <c r="B842" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B843" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
@@ -10217,7 +10221,7 @@
         <v>775</v>
       </c>
       <c r="B844" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
@@ -10225,7 +10229,7 @@
         <v>775</v>
       </c>
       <c r="B845" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
@@ -10233,7 +10237,7 @@
         <v>775</v>
       </c>
       <c r="B846" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
@@ -10241,7 +10245,7 @@
         <v>775</v>
       </c>
       <c r="B847" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
@@ -10249,7 +10253,7 @@
         <v>775</v>
       </c>
       <c r="B848" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
@@ -10257,7 +10261,7 @@
         <v>775</v>
       </c>
       <c r="B849" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
@@ -10265,7 +10269,7 @@
         <v>775</v>
       </c>
       <c r="B850" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
@@ -10273,7 +10277,7 @@
         <v>775</v>
       </c>
       <c r="B851" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
@@ -10281,7 +10285,7 @@
         <v>775</v>
       </c>
       <c r="B852" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
@@ -10289,7 +10293,7 @@
         <v>775</v>
       </c>
       <c r="B853" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
@@ -10297,7 +10301,7 @@
         <v>775</v>
       </c>
       <c r="B854" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
@@ -10305,7 +10309,7 @@
         <v>775</v>
       </c>
       <c r="B855" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
@@ -10313,7 +10317,7 @@
         <v>775</v>
       </c>
       <c r="B856" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
@@ -10321,7 +10325,7 @@
         <v>775</v>
       </c>
       <c r="B857" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -10329,7 +10333,7 @@
         <v>775</v>
       </c>
       <c r="B858" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
@@ -10337,7 +10341,7 @@
         <v>775</v>
       </c>
       <c r="B859" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
@@ -10345,7 +10349,7 @@
         <v>775</v>
       </c>
       <c r="B860" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
@@ -10353,7 +10357,7 @@
         <v>775</v>
       </c>
       <c r="B861" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
@@ -10361,7 +10365,7 @@
         <v>775</v>
       </c>
       <c r="B862" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
@@ -10369,7 +10373,7 @@
         <v>775</v>
       </c>
       <c r="B863" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
@@ -10377,7 +10381,7 @@
         <v>775</v>
       </c>
       <c r="B864" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
@@ -10385,7 +10389,7 @@
         <v>775</v>
       </c>
       <c r="B865" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
@@ -10393,7 +10397,7 @@
         <v>775</v>
       </c>
       <c r="B866" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
@@ -10401,7 +10405,7 @@
         <v>775</v>
       </c>
       <c r="B867" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
@@ -10409,7 +10413,7 @@
         <v>775</v>
       </c>
       <c r="B868" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
@@ -10417,7 +10421,7 @@
         <v>775</v>
       </c>
       <c r="B869" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
@@ -10425,7 +10429,7 @@
         <v>775</v>
       </c>
       <c r="B870" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
@@ -10433,7 +10437,7 @@
         <v>775</v>
       </c>
       <c r="B871" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
@@ -10441,7 +10445,7 @@
         <v>775</v>
       </c>
       <c r="B872" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
@@ -10449,7 +10453,7 @@
         <v>775</v>
       </c>
       <c r="B873" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
@@ -10457,7 +10461,7 @@
         <v>775</v>
       </c>
       <c r="B874" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
@@ -10465,7 +10469,7 @@
         <v>775</v>
       </c>
       <c r="B875" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
@@ -10473,7 +10477,7 @@
         <v>775</v>
       </c>
       <c r="B876" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
@@ -10481,7 +10485,7 @@
         <v>775</v>
       </c>
       <c r="B877" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
@@ -10489,7 +10493,7 @@
         <v>775</v>
       </c>
       <c r="B878" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -10497,7 +10501,7 @@
         <v>775</v>
       </c>
       <c r="B879" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
@@ -10505,7 +10509,7 @@
         <v>775</v>
       </c>
       <c r="B880" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
@@ -10513,7 +10517,7 @@
         <v>775</v>
       </c>
       <c r="B881" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
@@ -10521,7 +10525,7 @@
         <v>775</v>
       </c>
       <c r="B882" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -10529,7 +10533,7 @@
         <v>775</v>
       </c>
       <c r="B883" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -10537,7 +10541,7 @@
         <v>775</v>
       </c>
       <c r="B884" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
@@ -10545,7 +10549,7 @@
         <v>775</v>
       </c>
       <c r="B885" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
@@ -10553,7 +10557,7 @@
         <v>775</v>
       </c>
       <c r="B886" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
@@ -10561,7 +10565,7 @@
         <v>775</v>
       </c>
       <c r="B887" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
@@ -10569,7 +10573,7 @@
         <v>775</v>
       </c>
       <c r="B888" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
@@ -10577,7 +10581,7 @@
         <v>775</v>
       </c>
       <c r="B889" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
@@ -10585,7 +10589,7 @@
         <v>775</v>
       </c>
       <c r="B890" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
@@ -10593,7 +10597,7 @@
         <v>775</v>
       </c>
       <c r="B891" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
@@ -10601,7 +10605,7 @@
         <v>775</v>
       </c>
       <c r="B892" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -10609,7 +10613,7 @@
         <v>775</v>
       </c>
       <c r="B893" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
@@ -10617,7 +10621,7 @@
         <v>775</v>
       </c>
       <c r="B894" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -10625,7 +10629,7 @@
         <v>775</v>
       </c>
       <c r="B895" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -10633,7 +10637,7 @@
         <v>775</v>
       </c>
       <c r="B896" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
@@ -10641,7 +10645,7 @@
         <v>775</v>
       </c>
       <c r="B897" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -10649,7 +10653,7 @@
         <v>775</v>
       </c>
       <c r="B898" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
@@ -10657,7 +10661,7 @@
         <v>775</v>
       </c>
       <c r="B899" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
@@ -10665,7 +10669,7 @@
         <v>775</v>
       </c>
       <c r="B900" t="s">
-        <v>512</v>
+        <v>882</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
@@ -10673,7 +10677,7 @@
         <v>775</v>
       </c>
       <c r="B901" t="s">
-        <v>883</v>
+        <v>512</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -10681,15 +10685,15 @@
         <v>775</v>
       </c>
       <c r="B902" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B903" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -10697,7 +10701,7 @@
         <v>776</v>
       </c>
       <c r="B904" t="s">
-        <v>788</v>
+        <v>888</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
@@ -10705,7 +10709,7 @@
         <v>776</v>
       </c>
       <c r="B905" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
@@ -10713,7 +10717,7 @@
         <v>776</v>
       </c>
       <c r="B906" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
@@ -10721,7 +10725,7 @@
         <v>776</v>
       </c>
       <c r="B907" t="s">
-        <v>783</v>
+        <v>890</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
@@ -10729,7 +10733,7 @@
         <v>776</v>
       </c>
       <c r="B908" t="s">
-        <v>891</v>
+        <v>783</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
@@ -10737,7 +10741,7 @@
         <v>776</v>
       </c>
       <c r="B909" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
@@ -10745,7 +10749,7 @@
         <v>776</v>
       </c>
       <c r="B910" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -10753,7 +10757,7 @@
         <v>776</v>
       </c>
       <c r="B911" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
@@ -10761,7 +10765,7 @@
         <v>776</v>
       </c>
       <c r="B912" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
@@ -10769,7 +10773,7 @@
         <v>776</v>
       </c>
       <c r="B913" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
@@ -10777,7 +10781,7 @@
         <v>776</v>
       </c>
       <c r="B914" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
@@ -10785,7 +10789,7 @@
         <v>776</v>
       </c>
       <c r="B915" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
@@ -10793,7 +10797,7 @@
         <v>776</v>
       </c>
       <c r="B916" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
@@ -10801,7 +10805,7 @@
         <v>776</v>
       </c>
       <c r="B917" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
@@ -10809,7 +10813,7 @@
         <v>776</v>
       </c>
       <c r="B918" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
@@ -10817,7 +10821,7 @@
         <v>776</v>
       </c>
       <c r="B919" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
@@ -10825,7 +10829,7 @@
         <v>776</v>
       </c>
       <c r="B920" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
@@ -10833,7 +10837,7 @@
         <v>776</v>
       </c>
       <c r="B921" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
@@ -10841,7 +10845,7 @@
         <v>776</v>
       </c>
       <c r="B922" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
@@ -10849,7 +10853,7 @@
         <v>776</v>
       </c>
       <c r="B923" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
@@ -10857,7 +10861,7 @@
         <v>776</v>
       </c>
       <c r="B924" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -10865,7 +10869,7 @@
         <v>776</v>
       </c>
       <c r="B925" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -10873,7 +10877,7 @@
         <v>776</v>
       </c>
       <c r="B926" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -10881,7 +10885,7 @@
         <v>776</v>
       </c>
       <c r="B927" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
@@ -10889,7 +10893,7 @@
         <v>776</v>
       </c>
       <c r="B928" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -10897,7 +10901,7 @@
         <v>776</v>
       </c>
       <c r="B929" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -10905,7 +10909,7 @@
         <v>776</v>
       </c>
       <c r="B930" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
@@ -10913,7 +10917,7 @@
         <v>776</v>
       </c>
       <c r="B931" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -10921,7 +10925,7 @@
         <v>776</v>
       </c>
       <c r="B932" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
@@ -10929,7 +10933,7 @@
         <v>776</v>
       </c>
       <c r="B933" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
@@ -10937,7 +10941,7 @@
         <v>776</v>
       </c>
       <c r="B934" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -10945,7 +10949,7 @@
         <v>776</v>
       </c>
       <c r="B935" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -10953,7 +10957,7 @@
         <v>776</v>
       </c>
       <c r="B936" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -10961,7 +10965,7 @@
         <v>776</v>
       </c>
       <c r="B937" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -10969,7 +10973,7 @@
         <v>776</v>
       </c>
       <c r="B938" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -10977,7 +10981,7 @@
         <v>776</v>
       </c>
       <c r="B939" t="s">
-        <v>462</v>
+        <v>921</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -10985,7 +10989,7 @@
         <v>776</v>
       </c>
       <c r="B940" t="s">
-        <v>922</v>
+        <v>462</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -10993,7 +10997,7 @@
         <v>776</v>
       </c>
       <c r="B941" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -11001,7 +11005,7 @@
         <v>776</v>
       </c>
       <c r="B942" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -11009,7 +11013,7 @@
         <v>776</v>
       </c>
       <c r="B943" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
@@ -11017,7 +11021,7 @@
         <v>776</v>
       </c>
       <c r="B944" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.3">
@@ -11025,7 +11029,7 @@
         <v>776</v>
       </c>
       <c r="B945" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -11033,7 +11037,7 @@
         <v>776</v>
       </c>
       <c r="B946" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
@@ -11041,7 +11045,7 @@
         <v>776</v>
       </c>
       <c r="B947" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
@@ -11049,7 +11053,7 @@
         <v>776</v>
       </c>
       <c r="B948" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
@@ -11057,7 +11061,7 @@
         <v>776</v>
       </c>
       <c r="B949" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -11065,7 +11069,7 @@
         <v>776</v>
       </c>
       <c r="B950" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.3">
@@ -11073,7 +11077,7 @@
         <v>776</v>
       </c>
       <c r="B951" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -11081,7 +11085,7 @@
         <v>776</v>
       </c>
       <c r="B952" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
@@ -11089,7 +11093,7 @@
         <v>776</v>
       </c>
       <c r="B953" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -11097,7 +11101,7 @@
         <v>776</v>
       </c>
       <c r="B954" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -11105,7 +11109,7 @@
         <v>776</v>
       </c>
       <c r="B955" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
@@ -11113,7 +11117,7 @@
         <v>776</v>
       </c>
       <c r="B956" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -11121,7 +11125,7 @@
         <v>776</v>
       </c>
       <c r="B957" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -11129,7 +11133,7 @@
         <v>776</v>
       </c>
       <c r="B958" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -11137,7 +11141,7 @@
         <v>776</v>
       </c>
       <c r="B959" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
@@ -11145,7 +11149,7 @@
         <v>776</v>
       </c>
       <c r="B960" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
@@ -11153,7 +11157,7 @@
         <v>776</v>
       </c>
       <c r="B961" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -11161,7 +11165,7 @@
         <v>776</v>
       </c>
       <c r="B962" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
@@ -11169,7 +11173,7 @@
         <v>776</v>
       </c>
       <c r="B963" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -11177,7 +11181,7 @@
         <v>776</v>
       </c>
       <c r="B964" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -11185,7 +11189,7 @@
         <v>776</v>
       </c>
       <c r="B965" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
@@ -11193,7 +11197,7 @@
         <v>776</v>
       </c>
       <c r="B966" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
@@ -11201,7 +11205,7 @@
         <v>776</v>
       </c>
       <c r="B967" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
@@ -11209,7 +11213,7 @@
         <v>776</v>
       </c>
       <c r="B968" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
@@ -11217,7 +11221,7 @@
         <v>776</v>
       </c>
       <c r="B969" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
@@ -11225,7 +11229,7 @@
         <v>776</v>
       </c>
       <c r="B970" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.3">
@@ -11233,7 +11237,7 @@
         <v>776</v>
       </c>
       <c r="B971" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
@@ -11241,7 +11245,7 @@
         <v>776</v>
       </c>
       <c r="B972" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
@@ -11249,7 +11253,7 @@
         <v>776</v>
       </c>
       <c r="B973" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -11257,7 +11261,7 @@
         <v>776</v>
       </c>
       <c r="B974" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
@@ -11265,7 +11269,7 @@
         <v>776</v>
       </c>
       <c r="B975" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -11273,7 +11277,7 @@
         <v>776</v>
       </c>
       <c r="B976" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -11281,7 +11285,7 @@
         <v>776</v>
       </c>
       <c r="B977" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
@@ -11289,7 +11293,7 @@
         <v>776</v>
       </c>
       <c r="B978" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
@@ -11297,7 +11301,7 @@
         <v>776</v>
       </c>
       <c r="B979" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
@@ -11305,7 +11309,7 @@
         <v>776</v>
       </c>
       <c r="B980" t="s">
-        <v>552</v>
+        <v>961</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
@@ -11313,7 +11317,7 @@
         <v>776</v>
       </c>
       <c r="B981" t="s">
-        <v>962</v>
+        <v>552</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
@@ -11321,7 +11325,7 @@
         <v>776</v>
       </c>
       <c r="B982" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
@@ -11329,7 +11333,7 @@
         <v>776</v>
       </c>
       <c r="B983" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
@@ -11337,7 +11341,7 @@
         <v>776</v>
       </c>
       <c r="B984" t="s">
-        <v>599</v>
+        <v>964</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
@@ -11345,7 +11349,7 @@
         <v>776</v>
       </c>
       <c r="B985" t="s">
-        <v>965</v>
+        <v>599</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
@@ -11353,7 +11357,7 @@
         <v>776</v>
       </c>
       <c r="B986" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
@@ -11361,7 +11365,7 @@
         <v>776</v>
       </c>
       <c r="B987" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -11369,7 +11373,7 @@
         <v>776</v>
       </c>
       <c r="B988" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -11377,7 +11381,7 @@
         <v>776</v>
       </c>
       <c r="B989" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
@@ -11385,7 +11389,7 @@
         <v>776</v>
       </c>
       <c r="B990" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -11393,7 +11397,7 @@
         <v>776</v>
       </c>
       <c r="B991" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
@@ -11401,7 +11405,7 @@
         <v>776</v>
       </c>
       <c r="B992" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
@@ -11409,7 +11413,7 @@
         <v>776</v>
       </c>
       <c r="B993" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
@@ -11417,7 +11421,7 @@
         <v>776</v>
       </c>
       <c r="B994" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -11425,7 +11429,7 @@
         <v>776</v>
       </c>
       <c r="B995" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -11433,7 +11437,7 @@
         <v>776</v>
       </c>
       <c r="B996" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
@@ -11441,7 +11445,7 @@
         <v>776</v>
       </c>
       <c r="B997" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
@@ -11449,7 +11453,7 @@
         <v>776</v>
       </c>
       <c r="B998" t="s">
-        <v>469</v>
+        <v>977</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
@@ -11457,7 +11461,7 @@
         <v>776</v>
       </c>
       <c r="B999" t="s">
-        <v>978</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
@@ -11465,7 +11469,7 @@
         <v>776</v>
       </c>
       <c r="B1000" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
@@ -11473,7 +11477,7 @@
         <v>776</v>
       </c>
       <c r="B1001" t="s">
-        <v>578</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
@@ -11481,7 +11485,7 @@
         <v>776</v>
       </c>
       <c r="B1002" t="s">
-        <v>980</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
@@ -11489,7 +11493,7 @@
         <v>776</v>
       </c>
       <c r="B1003" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
@@ -11497,7 +11501,7 @@
         <v>776</v>
       </c>
       <c r="B1004" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
@@ -11505,7 +11509,7 @@
         <v>776</v>
       </c>
       <c r="B1005" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
@@ -11513,7 +11517,7 @@
         <v>776</v>
       </c>
       <c r="B1006" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
@@ -11521,7 +11525,7 @@
         <v>776</v>
       </c>
       <c r="B1007" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
@@ -11529,7 +11533,7 @@
         <v>776</v>
       </c>
       <c r="B1008" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
@@ -11537,7 +11541,7 @@
         <v>776</v>
       </c>
       <c r="B1009" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
@@ -11545,7 +11549,7 @@
         <v>776</v>
       </c>
       <c r="B1010" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
@@ -11553,7 +11557,7 @@
         <v>776</v>
       </c>
       <c r="B1011" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
@@ -11561,7 +11565,7 @@
         <v>776</v>
       </c>
       <c r="B1012" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
@@ -11569,15 +11573,15 @@
         <v>776</v>
       </c>
       <c r="B1013" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B1014" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -11585,7 +11589,7 @@
         <v>777</v>
       </c>
       <c r="B1015" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
@@ -11593,7 +11597,7 @@
         <v>777</v>
       </c>
       <c r="B1016" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
@@ -11601,7 +11605,7 @@
         <v>777</v>
       </c>
       <c r="B1017" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
@@ -11609,7 +11613,7 @@
         <v>777</v>
       </c>
       <c r="B1018" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
@@ -11617,7 +11621,7 @@
         <v>777</v>
       </c>
       <c r="B1019" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
@@ -11625,7 +11629,7 @@
         <v>777</v>
       </c>
       <c r="B1020" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
@@ -11633,7 +11637,7 @@
         <v>777</v>
       </c>
       <c r="B1021" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
@@ -11641,7 +11645,7 @@
         <v>777</v>
       </c>
       <c r="B1022" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
@@ -11649,7 +11653,7 @@
         <v>777</v>
       </c>
       <c r="B1023" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
@@ -11657,7 +11661,7 @@
         <v>777</v>
       </c>
       <c r="B1024" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
@@ -11665,7 +11669,7 @@
         <v>777</v>
       </c>
       <c r="B1025" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
@@ -11673,7 +11677,7 @@
         <v>777</v>
       </c>
       <c r="B1026" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
@@ -11681,7 +11685,7 @@
         <v>777</v>
       </c>
       <c r="B1027" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
@@ -11689,7 +11693,7 @@
         <v>777</v>
       </c>
       <c r="B1028" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
@@ -11697,7 +11701,7 @@
         <v>777</v>
       </c>
       <c r="B1029" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
@@ -11705,7 +11709,7 @@
         <v>777</v>
       </c>
       <c r="B1030" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
@@ -11713,7 +11717,7 @@
         <v>777</v>
       </c>
       <c r="B1031" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
@@ -11721,7 +11725,7 @@
         <v>777</v>
       </c>
       <c r="B1032" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
@@ -11729,7 +11733,7 @@
         <v>777</v>
       </c>
       <c r="B1033" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
@@ -11737,7 +11741,7 @@
         <v>777</v>
       </c>
       <c r="B1034" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
@@ -11745,7 +11749,7 @@
         <v>777</v>
       </c>
       <c r="B1035" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
@@ -11753,7 +11757,7 @@
         <v>777</v>
       </c>
       <c r="B1036" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
@@ -11761,7 +11765,7 @@
         <v>777</v>
       </c>
       <c r="B1037" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
@@ -11769,7 +11773,7 @@
         <v>777</v>
       </c>
       <c r="B1038" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
@@ -11777,7 +11781,7 @@
         <v>777</v>
       </c>
       <c r="B1039" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
@@ -11785,7 +11789,7 @@
         <v>777</v>
       </c>
       <c r="B1040" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
@@ -11793,6 +11797,14 @@
         <v>777</v>
       </c>
       <c r="B1041" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1019</v>
       </c>
     </row>
